--- a/doc/data/History.xlsx
+++ b/doc/data/History.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/OneDrive/ebswp/EBSpollock/doc/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/_mymods/ebswp/doc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2242F1-D5FF-974F-9902-40562951BC22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="33600" yWindow="-1340" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>1990 VPA</t>
   </si>
@@ -63,11 +71,17 @@
   <si>
     <t>2010 cv</t>
   </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Assessment year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -108,6 +122,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -375,10 +392,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="A1:O55"/>
     </sheetView>
   </sheetViews>
@@ -5157,10 +5174,9052 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0BA8D6-8FA9-E047-BBAE-CBF62DF575FE}">
+  <dimension ref="A2:S693"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:S58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="F2:H2" si="0">H2+1</f>
+        <v>2018</v>
+      </c>
+      <c r="H2">
+        <f>I2+1</f>
+        <v>2017</v>
+      </c>
+      <c r="I2">
+        <v>2016</v>
+      </c>
+      <c r="J2">
+        <v>2015</v>
+      </c>
+      <c r="K2">
+        <v>2014</v>
+      </c>
+      <c r="L2">
+        <v>2013</v>
+      </c>
+      <c r="M2">
+        <v>2012</v>
+      </c>
+      <c r="N2">
+        <v>2011</v>
+      </c>
+      <c r="O2">
+        <v>2010</v>
+      </c>
+      <c r="P2">
+        <v>2009</v>
+      </c>
+      <c r="Q2">
+        <v>2008</v>
+      </c>
+      <c r="R2">
+        <v>2007</v>
+      </c>
+      <c r="S2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1964</v>
+      </c>
+      <c r="B3">
+        <v>1834.3</v>
+      </c>
+      <c r="C3">
+        <v>2016</v>
+      </c>
+      <c r="F3">
+        <v>1964</v>
+      </c>
+      <c r="G3">
+        <v>1744.6</v>
+      </c>
+      <c r="H3">
+        <v>1779.9</v>
+      </c>
+      <c r="I3">
+        <v>1834.3</v>
+      </c>
+      <c r="J3">
+        <v>1869</v>
+      </c>
+      <c r="K3">
+        <v>1622.2</v>
+      </c>
+      <c r="L3">
+        <v>1602</v>
+      </c>
+      <c r="M3">
+        <v>1608.1</v>
+      </c>
+      <c r="N3">
+        <v>1601.5</v>
+      </c>
+      <c r="O3">
+        <v>1583.6</v>
+      </c>
+      <c r="P3">
+        <v>1564.3</v>
+      </c>
+      <c r="Q3">
+        <v>1600</v>
+      </c>
+      <c r="R3">
+        <v>1716.6</v>
+      </c>
+      <c r="S3">
+        <v>1810.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1965</v>
+      </c>
+      <c r="B4">
+        <v>2229.8000000000002</v>
+      </c>
+      <c r="C4">
+        <v>2016</v>
+      </c>
+      <c r="F4">
+        <v>1965</v>
+      </c>
+      <c r="G4">
+        <v>2124.8000000000002</v>
+      </c>
+      <c r="H4">
+        <v>2165.9</v>
+      </c>
+      <c r="I4">
+        <v>2229.8000000000002</v>
+      </c>
+      <c r="J4">
+        <v>2324</v>
+      </c>
+      <c r="K4">
+        <v>2076.6</v>
+      </c>
+      <c r="L4">
+        <v>2051.4</v>
+      </c>
+      <c r="M4">
+        <v>2059.1999999999998</v>
+      </c>
+      <c r="N4">
+        <v>2050.3000000000002</v>
+      </c>
+      <c r="O4">
+        <v>2000.5</v>
+      </c>
+      <c r="P4">
+        <v>2007.8</v>
+      </c>
+      <c r="Q4">
+        <v>2050.4</v>
+      </c>
+      <c r="R4">
+        <v>2141.4</v>
+      </c>
+      <c r="S4">
+        <v>2230.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1966</v>
+      </c>
+      <c r="B5">
+        <v>2404</v>
+      </c>
+      <c r="C5">
+        <v>2016</v>
+      </c>
+      <c r="F5">
+        <v>1966</v>
+      </c>
+      <c r="G5">
+        <v>2277.5</v>
+      </c>
+      <c r="H5">
+        <v>2326.5</v>
+      </c>
+      <c r="I5">
+        <v>2404</v>
+      </c>
+      <c r="J5">
+        <v>2563</v>
+      </c>
+      <c r="K5">
+        <v>2186.3000000000002</v>
+      </c>
+      <c r="L5">
+        <v>2149.6</v>
+      </c>
+      <c r="M5">
+        <v>2157.4</v>
+      </c>
+      <c r="N5">
+        <v>2158.8000000000002</v>
+      </c>
+      <c r="O5">
+        <v>1935.9</v>
+      </c>
+      <c r="P5">
+        <v>1947.4</v>
+      </c>
+      <c r="Q5">
+        <v>2007.1</v>
+      </c>
+      <c r="R5">
+        <v>2037.4</v>
+      </c>
+      <c r="S5">
+        <v>2251.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1967</v>
+      </c>
+      <c r="B6">
+        <v>3667.2</v>
+      </c>
+      <c r="C6">
+        <v>2016</v>
+      </c>
+      <c r="F6">
+        <v>1967</v>
+      </c>
+      <c r="G6">
+        <v>3504</v>
+      </c>
+      <c r="H6">
+        <v>3566.1</v>
+      </c>
+      <c r="I6">
+        <v>3667.2</v>
+      </c>
+      <c r="J6">
+        <v>3888</v>
+      </c>
+      <c r="K6">
+        <v>3397.3</v>
+      </c>
+      <c r="L6">
+        <v>3344</v>
+      </c>
+      <c r="M6">
+        <v>3352.9</v>
+      </c>
+      <c r="N6">
+        <v>3364.8</v>
+      </c>
+      <c r="O6">
+        <v>3130</v>
+      </c>
+      <c r="P6">
+        <v>3148.8</v>
+      </c>
+      <c r="Q6">
+        <v>3245.1</v>
+      </c>
+      <c r="R6">
+        <v>3206.1</v>
+      </c>
+      <c r="S6">
+        <v>3517.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1968</v>
+      </c>
+      <c r="B7">
+        <v>4198.7</v>
+      </c>
+      <c r="C7">
+        <v>2016</v>
+      </c>
+      <c r="F7">
+        <v>1968</v>
+      </c>
+      <c r="G7">
+        <v>4011.9</v>
+      </c>
+      <c r="H7">
+        <v>4082</v>
+      </c>
+      <c r="I7">
+        <v>4198.7</v>
+      </c>
+      <c r="J7">
+        <v>4495</v>
+      </c>
+      <c r="K7">
+        <v>3870.9</v>
+      </c>
+      <c r="L7">
+        <v>3800</v>
+      </c>
+      <c r="M7">
+        <v>3808.5</v>
+      </c>
+      <c r="N7">
+        <v>3838.1</v>
+      </c>
+      <c r="O7">
+        <v>3475.5</v>
+      </c>
+      <c r="P7">
+        <v>3510.3</v>
+      </c>
+      <c r="Q7">
+        <v>3591.5</v>
+      </c>
+      <c r="R7">
+        <v>3558.1</v>
+      </c>
+      <c r="S7">
+        <v>3881.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1969</v>
+      </c>
+      <c r="B8">
+        <v>5294.7</v>
+      </c>
+      <c r="C8">
+        <v>2016</v>
+      </c>
+      <c r="F8">
+        <v>1969</v>
+      </c>
+      <c r="G8">
+        <v>5105.1000000000004</v>
+      </c>
+      <c r="H8">
+        <v>5174.5</v>
+      </c>
+      <c r="I8">
+        <v>5294.7</v>
+      </c>
+      <c r="J8">
+        <v>5690</v>
+      </c>
+      <c r="K8">
+        <v>5220.3999999999996</v>
+      </c>
+      <c r="L8">
+        <v>5145.2</v>
+      </c>
+      <c r="M8">
+        <v>5154.3</v>
+      </c>
+      <c r="N8">
+        <v>5187.1000000000004</v>
+      </c>
+      <c r="O8">
+        <v>4867.7</v>
+      </c>
+      <c r="P8">
+        <v>5006.8999999999996</v>
+      </c>
+      <c r="Q8">
+        <v>5019.8999999999996</v>
+      </c>
+      <c r="R8">
+        <v>5117.6000000000004</v>
+      </c>
+      <c r="S8">
+        <v>5057.8999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1970</v>
+      </c>
+      <c r="B9">
+        <v>5936.4</v>
+      </c>
+      <c r="C9">
+        <v>2016</v>
+      </c>
+      <c r="F9">
+        <v>1970</v>
+      </c>
+      <c r="G9">
+        <v>5757.1</v>
+      </c>
+      <c r="H9">
+        <v>5820.8</v>
+      </c>
+      <c r="I9">
+        <v>5936.4</v>
+      </c>
+      <c r="J9">
+        <v>6424</v>
+      </c>
+      <c r="K9">
+        <v>6252.8</v>
+      </c>
+      <c r="L9">
+        <v>6178.6</v>
+      </c>
+      <c r="M9">
+        <v>6187.9</v>
+      </c>
+      <c r="N9">
+        <v>6221.4</v>
+      </c>
+      <c r="O9">
+        <v>5962.2</v>
+      </c>
+      <c r="P9">
+        <v>6158.5</v>
+      </c>
+      <c r="Q9">
+        <v>6005.2</v>
+      </c>
+      <c r="R9">
+        <v>6368.2</v>
+      </c>
+      <c r="S9">
+        <v>5929.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1971</v>
+      </c>
+      <c r="B10">
+        <v>6360.1</v>
+      </c>
+      <c r="C10">
+        <v>2016</v>
+      </c>
+      <c r="F10">
+        <v>1971</v>
+      </c>
+      <c r="G10">
+        <v>6209.9</v>
+      </c>
+      <c r="H10">
+        <v>6260.5</v>
+      </c>
+      <c r="I10">
+        <v>6360.1</v>
+      </c>
+      <c r="J10">
+        <v>6858</v>
+      </c>
+      <c r="K10">
+        <v>6945.8</v>
+      </c>
+      <c r="L10">
+        <v>6884.2</v>
+      </c>
+      <c r="M10">
+        <v>6893.7</v>
+      </c>
+      <c r="N10">
+        <v>6917.7</v>
+      </c>
+      <c r="O10">
+        <v>6774.6</v>
+      </c>
+      <c r="P10">
+        <v>6949.4</v>
+      </c>
+      <c r="Q10">
+        <v>6726.5</v>
+      </c>
+      <c r="R10">
+        <v>7163.5</v>
+      </c>
+      <c r="S10">
+        <v>6616.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1972</v>
+      </c>
+      <c r="B11">
+        <v>6024.9</v>
+      </c>
+      <c r="C11">
+        <v>2016</v>
+      </c>
+      <c r="F11">
+        <v>1972</v>
+      </c>
+      <c r="G11">
+        <v>5902.1</v>
+      </c>
+      <c r="H11">
+        <v>5940.8</v>
+      </c>
+      <c r="I11">
+        <v>6024.9</v>
+      </c>
+      <c r="J11">
+        <v>6431</v>
+      </c>
+      <c r="K11">
+        <v>6353</v>
+      </c>
+      <c r="L11">
+        <v>6299</v>
+      </c>
+      <c r="M11">
+        <v>6308.1</v>
+      </c>
+      <c r="N11">
+        <v>6328.9</v>
+      </c>
+      <c r="O11">
+        <v>6268.2</v>
+      </c>
+      <c r="P11">
+        <v>6444.4</v>
+      </c>
+      <c r="Q11">
+        <v>6288.8</v>
+      </c>
+      <c r="R11">
+        <v>6665.8</v>
+      </c>
+      <c r="S11">
+        <v>6265.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1973</v>
+      </c>
+      <c r="B12">
+        <v>4845.5</v>
+      </c>
+      <c r="C12">
+        <v>2016</v>
+      </c>
+      <c r="F12">
+        <v>1973</v>
+      </c>
+      <c r="G12">
+        <v>4729.8</v>
+      </c>
+      <c r="H12">
+        <v>4765.3999999999996</v>
+      </c>
+      <c r="I12">
+        <v>4845.5</v>
+      </c>
+      <c r="J12">
+        <v>5161</v>
+      </c>
+      <c r="K12">
+        <v>4748.6000000000004</v>
+      </c>
+      <c r="L12">
+        <v>4692</v>
+      </c>
+      <c r="M12">
+        <v>4700.2</v>
+      </c>
+      <c r="N12">
+        <v>4727.6000000000004</v>
+      </c>
+      <c r="O12">
+        <v>4538.8</v>
+      </c>
+      <c r="P12">
+        <v>4695.5</v>
+      </c>
+      <c r="Q12">
+        <v>4555.8999999999996</v>
+      </c>
+      <c r="R12">
+        <v>4941.8</v>
+      </c>
+      <c r="S12">
+        <v>4750.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1974</v>
+      </c>
+      <c r="B13">
+        <v>3589.9</v>
+      </c>
+      <c r="C13">
+        <v>2016</v>
+      </c>
+      <c r="F13">
+        <v>1974</v>
+      </c>
+      <c r="G13">
+        <v>3474.9</v>
+      </c>
+      <c r="H13">
+        <v>3510.2</v>
+      </c>
+      <c r="I13">
+        <v>3589.9</v>
+      </c>
+      <c r="J13">
+        <v>3846</v>
+      </c>
+      <c r="K13">
+        <v>3348.1</v>
+      </c>
+      <c r="L13">
+        <v>3291.1</v>
+      </c>
+      <c r="M13">
+        <v>3298.4</v>
+      </c>
+      <c r="N13">
+        <v>3329.3</v>
+      </c>
+      <c r="O13">
+        <v>3077.6</v>
+      </c>
+      <c r="P13">
+        <v>3195.5</v>
+      </c>
+      <c r="Q13">
+        <v>3064.3</v>
+      </c>
+      <c r="R13">
+        <v>3474.7</v>
+      </c>
+      <c r="S13">
+        <v>3460.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1975</v>
+      </c>
+      <c r="B14">
+        <v>3679.3</v>
+      </c>
+      <c r="C14">
+        <v>2016</v>
+      </c>
+      <c r="F14">
+        <v>1975</v>
+      </c>
+      <c r="G14">
+        <v>3585.1</v>
+      </c>
+      <c r="H14">
+        <v>3611.7</v>
+      </c>
+      <c r="I14">
+        <v>3679.3</v>
+      </c>
+      <c r="J14">
+        <v>3868</v>
+      </c>
+      <c r="K14">
+        <v>3554.2</v>
+      </c>
+      <c r="L14">
+        <v>3515.5</v>
+      </c>
+      <c r="M14">
+        <v>3523</v>
+      </c>
+      <c r="N14">
+        <v>3533.4</v>
+      </c>
+      <c r="O14">
+        <v>3360.1</v>
+      </c>
+      <c r="P14">
+        <v>3383.7</v>
+      </c>
+      <c r="Q14">
+        <v>3275.8</v>
+      </c>
+      <c r="R14">
+        <v>3604.2</v>
+      </c>
+      <c r="S14">
+        <v>3584.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1976</v>
+      </c>
+      <c r="B15">
+        <v>3608.7</v>
+      </c>
+      <c r="C15">
+        <v>2016</v>
+      </c>
+      <c r="F15">
+        <v>1976</v>
+      </c>
+      <c r="G15">
+        <v>3515.6</v>
+      </c>
+      <c r="H15">
+        <v>3538.1</v>
+      </c>
+      <c r="I15">
+        <v>3608.7</v>
+      </c>
+      <c r="J15">
+        <v>3872</v>
+      </c>
+      <c r="K15">
+        <v>3609.4</v>
+      </c>
+      <c r="L15">
+        <v>3577.9</v>
+      </c>
+      <c r="M15">
+        <v>3587</v>
+      </c>
+      <c r="N15">
+        <v>3580.3</v>
+      </c>
+      <c r="O15">
+        <v>3454.7</v>
+      </c>
+      <c r="P15">
+        <v>3430.9</v>
+      </c>
+      <c r="Q15">
+        <v>3339.3</v>
+      </c>
+      <c r="R15">
+        <v>3583.8</v>
+      </c>
+      <c r="S15">
+        <v>3576.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1977</v>
+      </c>
+      <c r="B16">
+        <v>3535.7</v>
+      </c>
+      <c r="C16">
+        <v>2016</v>
+      </c>
+      <c r="F16">
+        <v>1977</v>
+      </c>
+      <c r="G16">
+        <v>3426.2</v>
+      </c>
+      <c r="H16">
+        <v>3446.6</v>
+      </c>
+      <c r="I16">
+        <v>3535.7</v>
+      </c>
+      <c r="J16">
+        <v>3939</v>
+      </c>
+      <c r="K16">
+        <v>3642.6</v>
+      </c>
+      <c r="L16">
+        <v>3612.5</v>
+      </c>
+      <c r="M16">
+        <v>3623.7</v>
+      </c>
+      <c r="N16">
+        <v>3598.2</v>
+      </c>
+      <c r="O16">
+        <v>3493.7</v>
+      </c>
+      <c r="P16">
+        <v>3456.5</v>
+      </c>
+      <c r="Q16">
+        <v>3340.1</v>
+      </c>
+      <c r="R16">
+        <v>3602.2</v>
+      </c>
+      <c r="S16">
+        <v>3581.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1978</v>
+      </c>
+      <c r="B17">
+        <v>3375.6</v>
+      </c>
+      <c r="C17">
+        <v>2016</v>
+      </c>
+      <c r="F17">
+        <v>1978</v>
+      </c>
+      <c r="G17">
+        <v>3250.7</v>
+      </c>
+      <c r="H17">
+        <v>3273.7</v>
+      </c>
+      <c r="I17">
+        <v>3375.6</v>
+      </c>
+      <c r="J17">
+        <v>3888</v>
+      </c>
+      <c r="K17">
+        <v>3556.6</v>
+      </c>
+      <c r="L17">
+        <v>3524</v>
+      </c>
+      <c r="M17">
+        <v>3537.1</v>
+      </c>
+      <c r="N17">
+        <v>3496.6</v>
+      </c>
+      <c r="O17">
+        <v>3382.9</v>
+      </c>
+      <c r="P17">
+        <v>3340</v>
+      </c>
+      <c r="Q17">
+        <v>3202.1</v>
+      </c>
+      <c r="R17">
+        <v>3475.7</v>
+      </c>
+      <c r="S17">
+        <v>3437.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1979</v>
+      </c>
+      <c r="B18">
+        <v>3239.2</v>
+      </c>
+      <c r="C18">
+        <v>2016</v>
+      </c>
+      <c r="F18">
+        <v>1979</v>
+      </c>
+      <c r="G18">
+        <v>3087</v>
+      </c>
+      <c r="H18">
+        <v>3116.1</v>
+      </c>
+      <c r="I18">
+        <v>3239.2</v>
+      </c>
+      <c r="J18">
+        <v>3859</v>
+      </c>
+      <c r="K18">
+        <v>3426.3</v>
+      </c>
+      <c r="L18">
+        <v>3386.9</v>
+      </c>
+      <c r="M18">
+        <v>3402.6</v>
+      </c>
+      <c r="N18">
+        <v>3342.5</v>
+      </c>
+      <c r="O18">
+        <v>3259.4</v>
+      </c>
+      <c r="P18">
+        <v>3211.9</v>
+      </c>
+      <c r="Q18">
+        <v>3089.6</v>
+      </c>
+      <c r="R18">
+        <v>3363</v>
+      </c>
+      <c r="S18">
+        <v>3322.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1980</v>
+      </c>
+      <c r="B19">
+        <v>4068.6</v>
+      </c>
+      <c r="C19">
+        <v>2016</v>
+      </c>
+      <c r="F19">
+        <v>1980</v>
+      </c>
+      <c r="G19">
+        <v>3856.9</v>
+      </c>
+      <c r="H19">
+        <v>3896.4</v>
+      </c>
+      <c r="I19">
+        <v>4068.6</v>
+      </c>
+      <c r="J19">
+        <v>4887</v>
+      </c>
+      <c r="K19">
+        <v>4372.1000000000004</v>
+      </c>
+      <c r="L19">
+        <v>4307.3999999999996</v>
+      </c>
+      <c r="M19">
+        <v>4332.6000000000004</v>
+      </c>
+      <c r="N19">
+        <v>4229.6000000000004</v>
+      </c>
+      <c r="O19">
+        <v>4190.6000000000004</v>
+      </c>
+      <c r="P19">
+        <v>4123.8</v>
+      </c>
+      <c r="Q19">
+        <v>4043.6</v>
+      </c>
+      <c r="R19">
+        <v>4383.8999999999996</v>
+      </c>
+      <c r="S19">
+        <v>4319.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1981</v>
+      </c>
+      <c r="B20">
+        <v>7813.5</v>
+      </c>
+      <c r="C20">
+        <v>2016</v>
+      </c>
+      <c r="F20">
+        <v>1981</v>
+      </c>
+      <c r="G20">
+        <v>7314.5</v>
+      </c>
+      <c r="H20">
+        <v>7453.4</v>
+      </c>
+      <c r="I20">
+        <v>7813.5</v>
+      </c>
+      <c r="J20">
+        <v>9054</v>
+      </c>
+      <c r="K20">
+        <v>8527.7000000000007</v>
+      </c>
+      <c r="L20">
+        <v>8320.7999999999993</v>
+      </c>
+      <c r="M20">
+        <v>8363.5</v>
+      </c>
+      <c r="N20">
+        <v>8159.6</v>
+      </c>
+      <c r="O20">
+        <v>8166.2</v>
+      </c>
+      <c r="P20">
+        <v>8031</v>
+      </c>
+      <c r="Q20">
+        <v>7704</v>
+      </c>
+      <c r="R20">
+        <v>8307.4</v>
+      </c>
+      <c r="S20">
+        <v>8364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1982</v>
+      </c>
+      <c r="B21">
+        <v>9056.6</v>
+      </c>
+      <c r="C21">
+        <v>2016</v>
+      </c>
+      <c r="F21">
+        <v>1982</v>
+      </c>
+      <c r="G21">
+        <v>8448.2000000000007</v>
+      </c>
+      <c r="H21">
+        <v>8645.2000000000007</v>
+      </c>
+      <c r="I21">
+        <v>9056.6</v>
+      </c>
+      <c r="J21">
+        <v>10289</v>
+      </c>
+      <c r="K21">
+        <v>9766.5</v>
+      </c>
+      <c r="L21">
+        <v>9496.9</v>
+      </c>
+      <c r="M21">
+        <v>9548.7999999999993</v>
+      </c>
+      <c r="N21">
+        <v>9313.2999999999993</v>
+      </c>
+      <c r="O21">
+        <v>9321.1</v>
+      </c>
+      <c r="P21">
+        <v>9164.5</v>
+      </c>
+      <c r="Q21">
+        <v>8782.7999999999993</v>
+      </c>
+      <c r="R21">
+        <v>9439</v>
+      </c>
+      <c r="S21">
+        <v>9475.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1983</v>
+      </c>
+      <c r="B22">
+        <v>10240</v>
+      </c>
+      <c r="C22">
+        <v>2016</v>
+      </c>
+      <c r="F22">
+        <v>1983</v>
+      </c>
+      <c r="G22">
+        <v>9556.9</v>
+      </c>
+      <c r="H22">
+        <v>9849.5</v>
+      </c>
+      <c r="I22">
+        <v>10240</v>
+      </c>
+      <c r="J22">
+        <v>11383</v>
+      </c>
+      <c r="K22">
+        <v>10911</v>
+      </c>
+      <c r="L22">
+        <v>10560</v>
+      </c>
+      <c r="M22">
+        <v>10621</v>
+      </c>
+      <c r="N22">
+        <v>10340</v>
+      </c>
+      <c r="O22">
+        <v>10345</v>
+      </c>
+      <c r="P22">
+        <v>10168</v>
+      </c>
+      <c r="Q22">
+        <v>9803.6</v>
+      </c>
+      <c r="R22">
+        <v>10493</v>
+      </c>
+      <c r="S22">
+        <v>10443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1984</v>
+      </c>
+      <c r="B23">
+        <v>10033</v>
+      </c>
+      <c r="C23">
+        <v>2016</v>
+      </c>
+      <c r="F23">
+        <v>1984</v>
+      </c>
+      <c r="G23">
+        <v>9428</v>
+      </c>
+      <c r="H23">
+        <v>9731.7000000000007</v>
+      </c>
+      <c r="I23">
+        <v>10033</v>
+      </c>
+      <c r="J23">
+        <v>11040</v>
+      </c>
+      <c r="K23">
+        <v>10601</v>
+      </c>
+      <c r="L23">
+        <v>10239</v>
+      </c>
+      <c r="M23">
+        <v>10300</v>
+      </c>
+      <c r="N23">
+        <v>10031</v>
+      </c>
+      <c r="O23">
+        <v>10029</v>
+      </c>
+      <c r="P23">
+        <v>9856.5</v>
+      </c>
+      <c r="Q23">
+        <v>9517.7000000000007</v>
+      </c>
+      <c r="R23">
+        <v>10200</v>
+      </c>
+      <c r="S23">
+        <v>10088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1985</v>
+      </c>
+      <c r="B24">
+        <v>12237</v>
+      </c>
+      <c r="C24">
+        <v>2016</v>
+      </c>
+      <c r="F24">
+        <v>1985</v>
+      </c>
+      <c r="G24">
+        <v>11615</v>
+      </c>
+      <c r="H24">
+        <v>11887</v>
+      </c>
+      <c r="I24">
+        <v>12237</v>
+      </c>
+      <c r="J24">
+        <v>12951</v>
+      </c>
+      <c r="K24">
+        <v>12838</v>
+      </c>
+      <c r="L24">
+        <v>12409</v>
+      </c>
+      <c r="M24">
+        <v>12478</v>
+      </c>
+      <c r="N24">
+        <v>12186</v>
+      </c>
+      <c r="O24">
+        <v>12213</v>
+      </c>
+      <c r="P24">
+        <v>12027</v>
+      </c>
+      <c r="Q24">
+        <v>11802</v>
+      </c>
+      <c r="R24">
+        <v>12531</v>
+      </c>
+      <c r="S24">
+        <v>12285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1986</v>
+      </c>
+      <c r="B25">
+        <v>11531</v>
+      </c>
+      <c r="C25">
+        <v>2016</v>
+      </c>
+      <c r="F25">
+        <v>1986</v>
+      </c>
+      <c r="G25">
+        <v>11039</v>
+      </c>
+      <c r="H25">
+        <v>11278</v>
+      </c>
+      <c r="I25">
+        <v>11531</v>
+      </c>
+      <c r="J25">
+        <v>12019</v>
+      </c>
+      <c r="K25">
+        <v>12036</v>
+      </c>
+      <c r="L25">
+        <v>11621</v>
+      </c>
+      <c r="M25">
+        <v>11685</v>
+      </c>
+      <c r="N25">
+        <v>11426</v>
+      </c>
+      <c r="O25">
+        <v>11440</v>
+      </c>
+      <c r="P25">
+        <v>11269</v>
+      </c>
+      <c r="Q25">
+        <v>11075</v>
+      </c>
+      <c r="R25">
+        <v>11773</v>
+      </c>
+      <c r="S25">
+        <v>11486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1987</v>
+      </c>
+      <c r="B26">
+        <v>12143</v>
+      </c>
+      <c r="C26">
+        <v>2016</v>
+      </c>
+      <c r="F26">
+        <v>1987</v>
+      </c>
+      <c r="G26">
+        <v>11734</v>
+      </c>
+      <c r="H26">
+        <v>11922</v>
+      </c>
+      <c r="I26">
+        <v>12143</v>
+      </c>
+      <c r="J26">
+        <v>12334</v>
+      </c>
+      <c r="K26">
+        <v>12615</v>
+      </c>
+      <c r="L26">
+        <v>12243</v>
+      </c>
+      <c r="M26">
+        <v>12308</v>
+      </c>
+      <c r="N26">
+        <v>12063</v>
+      </c>
+      <c r="O26">
+        <v>12080</v>
+      </c>
+      <c r="P26">
+        <v>11915</v>
+      </c>
+      <c r="Q26">
+        <v>11732</v>
+      </c>
+      <c r="R26">
+        <v>12401</v>
+      </c>
+      <c r="S26">
+        <v>12077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1988</v>
+      </c>
+      <c r="B27">
+        <v>11497</v>
+      </c>
+      <c r="C27">
+        <v>2016</v>
+      </c>
+      <c r="F27">
+        <v>1988</v>
+      </c>
+      <c r="G27">
+        <v>11125</v>
+      </c>
+      <c r="H27">
+        <v>11291</v>
+      </c>
+      <c r="I27">
+        <v>11497</v>
+      </c>
+      <c r="J27">
+        <v>11536</v>
+      </c>
+      <c r="K27">
+        <v>11906</v>
+      </c>
+      <c r="L27">
+        <v>11583</v>
+      </c>
+      <c r="M27">
+        <v>11642</v>
+      </c>
+      <c r="N27">
+        <v>11424</v>
+      </c>
+      <c r="O27">
+        <v>11372</v>
+      </c>
+      <c r="P27">
+        <v>11227</v>
+      </c>
+      <c r="Q27">
+        <v>11004</v>
+      </c>
+      <c r="R27">
+        <v>11617</v>
+      </c>
+      <c r="S27">
+        <v>11330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1989</v>
+      </c>
+      <c r="B28">
+        <v>9755.5</v>
+      </c>
+      <c r="C28">
+        <v>2016</v>
+      </c>
+      <c r="F28">
+        <v>1989</v>
+      </c>
+      <c r="G28">
+        <v>9422.7999999999993</v>
+      </c>
+      <c r="H28">
+        <v>9568.5</v>
+      </c>
+      <c r="I28">
+        <v>9755.5</v>
+      </c>
+      <c r="J28">
+        <v>9700</v>
+      </c>
+      <c r="K28">
+        <v>10128</v>
+      </c>
+      <c r="L28">
+        <v>9860.9</v>
+      </c>
+      <c r="M28">
+        <v>9912.7000000000007</v>
+      </c>
+      <c r="N28">
+        <v>9723.9</v>
+      </c>
+      <c r="O28">
+        <v>9644.2999999999993</v>
+      </c>
+      <c r="P28">
+        <v>9520.6</v>
+      </c>
+      <c r="Q28">
+        <v>9320.1</v>
+      </c>
+      <c r="R28">
+        <v>9874.5</v>
+      </c>
+      <c r="S28">
+        <v>9584.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1990</v>
+      </c>
+      <c r="B29">
+        <v>7812.1</v>
+      </c>
+      <c r="C29">
+        <v>2016</v>
+      </c>
+      <c r="F29">
+        <v>1990</v>
+      </c>
+      <c r="G29">
+        <v>7536.9</v>
+      </c>
+      <c r="H29">
+        <v>7671.3</v>
+      </c>
+      <c r="I29">
+        <v>7812.1</v>
+      </c>
+      <c r="J29">
+        <v>7701</v>
+      </c>
+      <c r="K29">
+        <v>8101.9</v>
+      </c>
+      <c r="L29">
+        <v>7891.2</v>
+      </c>
+      <c r="M29">
+        <v>7935.9</v>
+      </c>
+      <c r="N29">
+        <v>7764.1</v>
+      </c>
+      <c r="O29">
+        <v>7657.5</v>
+      </c>
+      <c r="P29">
+        <v>7558.3</v>
+      </c>
+      <c r="Q29">
+        <v>7344.7</v>
+      </c>
+      <c r="R29">
+        <v>7846.9</v>
+      </c>
+      <c r="S29">
+        <v>7602.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1991</v>
+      </c>
+      <c r="B30">
+        <v>6183.5</v>
+      </c>
+      <c r="C30">
+        <v>2016</v>
+      </c>
+      <c r="F30">
+        <v>1991</v>
+      </c>
+      <c r="G30">
+        <v>5920.3</v>
+      </c>
+      <c r="H30">
+        <v>6054.5</v>
+      </c>
+      <c r="I30">
+        <v>6183.5</v>
+      </c>
+      <c r="J30">
+        <v>6063</v>
+      </c>
+      <c r="K30">
+        <v>6331.4</v>
+      </c>
+      <c r="L30">
+        <v>6170.8</v>
+      </c>
+      <c r="M30">
+        <v>6209.3</v>
+      </c>
+      <c r="N30">
+        <v>6048.8</v>
+      </c>
+      <c r="O30">
+        <v>5889.5</v>
+      </c>
+      <c r="P30">
+        <v>5811.2</v>
+      </c>
+      <c r="Q30">
+        <v>5590.1</v>
+      </c>
+      <c r="R30">
+        <v>6096.8</v>
+      </c>
+      <c r="S30">
+        <v>5928.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1992</v>
+      </c>
+      <c r="B31">
+        <v>9476.6</v>
+      </c>
+      <c r="C31">
+        <v>2016</v>
+      </c>
+      <c r="F31">
+        <v>1992</v>
+      </c>
+      <c r="G31">
+        <v>9065.2000000000007</v>
+      </c>
+      <c r="H31">
+        <v>9276.2999999999993</v>
+      </c>
+      <c r="I31">
+        <v>9476.6</v>
+      </c>
+      <c r="J31">
+        <v>9472</v>
+      </c>
+      <c r="K31">
+        <v>9704.5</v>
+      </c>
+      <c r="L31">
+        <v>9561.7000000000007</v>
+      </c>
+      <c r="M31">
+        <v>9601.7999999999993</v>
+      </c>
+      <c r="N31">
+        <v>9411</v>
+      </c>
+      <c r="O31">
+        <v>9292.2000000000007</v>
+      </c>
+      <c r="P31">
+        <v>9211</v>
+      </c>
+      <c r="Q31">
+        <v>8966.2000000000007</v>
+      </c>
+      <c r="R31">
+        <v>9557</v>
+      </c>
+      <c r="S31">
+        <v>9269.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1993</v>
+      </c>
+      <c r="B32">
+        <v>11627</v>
+      </c>
+      <c r="C32">
+        <v>2016</v>
+      </c>
+      <c r="F32">
+        <v>1993</v>
+      </c>
+      <c r="G32">
+        <v>11181</v>
+      </c>
+      <c r="H32">
+        <v>11427</v>
+      </c>
+      <c r="I32">
+        <v>11627</v>
+      </c>
+      <c r="J32">
+        <v>11712</v>
+      </c>
+      <c r="K32">
+        <v>11840</v>
+      </c>
+      <c r="L32">
+        <v>11712</v>
+      </c>
+      <c r="M32">
+        <v>11754</v>
+      </c>
+      <c r="N32">
+        <v>11543</v>
+      </c>
+      <c r="O32">
+        <v>11466</v>
+      </c>
+      <c r="P32">
+        <v>11388</v>
+      </c>
+      <c r="Q32">
+        <v>11175</v>
+      </c>
+      <c r="R32">
+        <v>11832</v>
+      </c>
+      <c r="S32">
+        <v>11795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1994</v>
+      </c>
+      <c r="B33">
+        <v>11313</v>
+      </c>
+      <c r="C33">
+        <v>2016</v>
+      </c>
+      <c r="F33">
+        <v>1994</v>
+      </c>
+      <c r="G33">
+        <v>10957</v>
+      </c>
+      <c r="H33">
+        <v>11188</v>
+      </c>
+      <c r="I33">
+        <v>11313</v>
+      </c>
+      <c r="J33">
+        <v>11418</v>
+      </c>
+      <c r="K33">
+        <v>11402</v>
+      </c>
+      <c r="L33">
+        <v>11306</v>
+      </c>
+      <c r="M33">
+        <v>11341</v>
+      </c>
+      <c r="N33">
+        <v>11146</v>
+      </c>
+      <c r="O33">
+        <v>11050</v>
+      </c>
+      <c r="P33">
+        <v>10990</v>
+      </c>
+      <c r="Q33">
+        <v>10782</v>
+      </c>
+      <c r="R33">
+        <v>11485</v>
+      </c>
+      <c r="S33">
+        <v>11407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1995</v>
+      </c>
+      <c r="B34">
+        <v>13000</v>
+      </c>
+      <c r="C34">
+        <v>2016</v>
+      </c>
+      <c r="F34">
+        <v>1995</v>
+      </c>
+      <c r="G34">
+        <v>12508</v>
+      </c>
+      <c r="H34">
+        <v>12757</v>
+      </c>
+      <c r="I34">
+        <v>13000</v>
+      </c>
+      <c r="J34">
+        <v>13177</v>
+      </c>
+      <c r="K34">
+        <v>13135</v>
+      </c>
+      <c r="L34">
+        <v>13074</v>
+      </c>
+      <c r="M34">
+        <v>13109</v>
+      </c>
+      <c r="N34">
+        <v>12883</v>
+      </c>
+      <c r="O34">
+        <v>12748</v>
+      </c>
+      <c r="P34">
+        <v>12699</v>
+      </c>
+      <c r="Q34">
+        <v>12704</v>
+      </c>
+      <c r="R34">
+        <v>13615</v>
+      </c>
+      <c r="S34">
+        <v>13658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1996</v>
+      </c>
+      <c r="B35">
+        <v>11239</v>
+      </c>
+      <c r="C35">
+        <v>2016</v>
+      </c>
+      <c r="F35">
+        <v>1996</v>
+      </c>
+      <c r="G35">
+        <v>10751</v>
+      </c>
+      <c r="H35">
+        <v>10979</v>
+      </c>
+      <c r="I35">
+        <v>11239</v>
+      </c>
+      <c r="J35">
+        <v>11358</v>
+      </c>
+      <c r="K35">
+        <v>11235</v>
+      </c>
+      <c r="L35">
+        <v>11198</v>
+      </c>
+      <c r="M35">
+        <v>11229</v>
+      </c>
+      <c r="N35">
+        <v>11019</v>
+      </c>
+      <c r="O35">
+        <v>10874</v>
+      </c>
+      <c r="P35">
+        <v>10843</v>
+      </c>
+      <c r="Q35">
+        <v>10829</v>
+      </c>
+      <c r="R35">
+        <v>11537</v>
+      </c>
+      <c r="S35">
+        <v>11480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1997</v>
+      </c>
+      <c r="B36">
+        <v>9837.2000000000007</v>
+      </c>
+      <c r="C36">
+        <v>2016</v>
+      </c>
+      <c r="F36">
+        <v>1997</v>
+      </c>
+      <c r="G36">
+        <v>9395.2000000000007</v>
+      </c>
+      <c r="H36">
+        <v>9603.7000000000007</v>
+      </c>
+      <c r="I36">
+        <v>9837.2000000000007</v>
+      </c>
+      <c r="J36">
+        <v>9940</v>
+      </c>
+      <c r="K36">
+        <v>9816.4</v>
+      </c>
+      <c r="L36">
+        <v>9801.2000000000007</v>
+      </c>
+      <c r="M36">
+        <v>9828.1</v>
+      </c>
+      <c r="N36">
+        <v>9626.5</v>
+      </c>
+      <c r="O36">
+        <v>9457.1</v>
+      </c>
+      <c r="P36">
+        <v>9440.1</v>
+      </c>
+      <c r="Q36">
+        <v>9403.2000000000007</v>
+      </c>
+      <c r="R36">
+        <v>10104</v>
+      </c>
+      <c r="S36">
+        <v>10056</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1998</v>
+      </c>
+      <c r="B37">
+        <v>9908.6</v>
+      </c>
+      <c r="C37">
+        <v>2016</v>
+      </c>
+      <c r="F37">
+        <v>1998</v>
+      </c>
+      <c r="G37">
+        <v>9422.4</v>
+      </c>
+      <c r="H37">
+        <v>9609.6</v>
+      </c>
+      <c r="I37">
+        <v>9908.6</v>
+      </c>
+      <c r="J37">
+        <v>9990</v>
+      </c>
+      <c r="K37">
+        <v>9906.7999999999993</v>
+      </c>
+      <c r="L37">
+        <v>9902.7000000000007</v>
+      </c>
+      <c r="M37">
+        <v>9929.2999999999993</v>
+      </c>
+      <c r="N37">
+        <v>9721.7999999999993</v>
+      </c>
+      <c r="O37">
+        <v>9555.5</v>
+      </c>
+      <c r="P37">
+        <v>9537.7000000000007</v>
+      </c>
+      <c r="Q37">
+        <v>9466.9</v>
+      </c>
+      <c r="R37">
+        <v>10178</v>
+      </c>
+      <c r="S37">
+        <v>9972.7999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1999</v>
+      </c>
+      <c r="B38">
+        <v>10751</v>
+      </c>
+      <c r="C38">
+        <v>2016</v>
+      </c>
+      <c r="F38">
+        <v>1999</v>
+      </c>
+      <c r="G38">
+        <v>10390</v>
+      </c>
+      <c r="H38">
+        <v>10561</v>
+      </c>
+      <c r="I38">
+        <v>10751</v>
+      </c>
+      <c r="J38">
+        <v>10853</v>
+      </c>
+      <c r="K38">
+        <v>10799</v>
+      </c>
+      <c r="L38">
+        <v>10791</v>
+      </c>
+      <c r="M38">
+        <v>10819</v>
+      </c>
+      <c r="N38">
+        <v>10607</v>
+      </c>
+      <c r="O38">
+        <v>10482</v>
+      </c>
+      <c r="P38">
+        <v>10421</v>
+      </c>
+      <c r="Q38">
+        <v>10379</v>
+      </c>
+      <c r="R38">
+        <v>11081</v>
+      </c>
+      <c r="S38">
+        <v>10872</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2000</v>
+      </c>
+      <c r="B39">
+        <v>9955.2999999999993</v>
+      </c>
+      <c r="C39">
+        <v>2016</v>
+      </c>
+      <c r="F39">
+        <v>2000</v>
+      </c>
+      <c r="G39">
+        <v>9582.5</v>
+      </c>
+      <c r="H39">
+        <v>9735.7000000000007</v>
+      </c>
+      <c r="I39">
+        <v>9955.2999999999993</v>
+      </c>
+      <c r="J39">
+        <v>10068</v>
+      </c>
+      <c r="K39">
+        <v>10031</v>
+      </c>
+      <c r="L39">
+        <v>10020</v>
+      </c>
+      <c r="M39">
+        <v>10044</v>
+      </c>
+      <c r="N39">
+        <v>9840.7000000000007</v>
+      </c>
+      <c r="O39">
+        <v>9721.7999999999993</v>
+      </c>
+      <c r="P39">
+        <v>9632.2000000000007</v>
+      </c>
+      <c r="Q39">
+        <v>9503.2999999999993</v>
+      </c>
+      <c r="R39">
+        <v>10201</v>
+      </c>
+      <c r="S39">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2001</v>
+      </c>
+      <c r="B40">
+        <v>9702.1</v>
+      </c>
+      <c r="C40">
+        <v>2016</v>
+      </c>
+      <c r="F40">
+        <v>2001</v>
+      </c>
+      <c r="G40">
+        <v>9335.2999999999993</v>
+      </c>
+      <c r="H40">
+        <v>9479.4</v>
+      </c>
+      <c r="I40">
+        <v>9702.1</v>
+      </c>
+      <c r="J40">
+        <v>9854</v>
+      </c>
+      <c r="K40">
+        <v>9818.9</v>
+      </c>
+      <c r="L40">
+        <v>9802.5</v>
+      </c>
+      <c r="M40">
+        <v>9829.9</v>
+      </c>
+      <c r="N40">
+        <v>9615.7000000000007</v>
+      </c>
+      <c r="O40">
+        <v>9481.2999999999993</v>
+      </c>
+      <c r="P40">
+        <v>9341.2000000000007</v>
+      </c>
+      <c r="Q40">
+        <v>9175.1</v>
+      </c>
+      <c r="R40">
+        <v>9897.5</v>
+      </c>
+      <c r="S40">
+        <v>9799.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2002</v>
+      </c>
+      <c r="B41">
+        <v>10025</v>
+      </c>
+      <c r="C41">
+        <v>2016</v>
+      </c>
+      <c r="F41">
+        <v>2002</v>
+      </c>
+      <c r="G41">
+        <v>9698.7999999999993</v>
+      </c>
+      <c r="H41">
+        <v>9811.1</v>
+      </c>
+      <c r="I41">
+        <v>10025</v>
+      </c>
+      <c r="J41">
+        <v>10276</v>
+      </c>
+      <c r="K41">
+        <v>10221</v>
+      </c>
+      <c r="L41">
+        <v>10182</v>
+      </c>
+      <c r="M41">
+        <v>10230</v>
+      </c>
+      <c r="N41">
+        <v>9987.6</v>
+      </c>
+      <c r="O41">
+        <v>9818.1</v>
+      </c>
+      <c r="P41">
+        <v>9595.1</v>
+      </c>
+      <c r="Q41">
+        <v>9553.6</v>
+      </c>
+      <c r="R41">
+        <v>10224</v>
+      </c>
+      <c r="S41">
+        <v>10197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2003</v>
+      </c>
+      <c r="B42">
+        <v>12080</v>
+      </c>
+      <c r="C42">
+        <v>2016</v>
+      </c>
+      <c r="F42">
+        <v>2003</v>
+      </c>
+      <c r="G42">
+        <v>11657</v>
+      </c>
+      <c r="H42">
+        <v>11750</v>
+      </c>
+      <c r="I42">
+        <v>12080</v>
+      </c>
+      <c r="J42">
+        <v>12365</v>
+      </c>
+      <c r="K42">
+        <v>12278</v>
+      </c>
+      <c r="L42">
+        <v>12211</v>
+      </c>
+      <c r="M42">
+        <v>12269</v>
+      </c>
+      <c r="N42">
+        <v>11974</v>
+      </c>
+      <c r="O42">
+        <v>11780</v>
+      </c>
+      <c r="P42">
+        <v>11453</v>
+      </c>
+      <c r="Q42">
+        <v>11182</v>
+      </c>
+      <c r="R42">
+        <v>12865</v>
+      </c>
+      <c r="S42">
+        <v>13320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2004</v>
+      </c>
+      <c r="B43">
+        <v>11401</v>
+      </c>
+      <c r="C43">
+        <v>2016</v>
+      </c>
+      <c r="F43">
+        <v>2004</v>
+      </c>
+      <c r="G43">
+        <v>10999</v>
+      </c>
+      <c r="H43">
+        <v>11073</v>
+      </c>
+      <c r="I43">
+        <v>11401</v>
+      </c>
+      <c r="J43">
+        <v>11591</v>
+      </c>
+      <c r="K43">
+        <v>11493</v>
+      </c>
+      <c r="L43">
+        <v>11416</v>
+      </c>
+      <c r="M43">
+        <v>11491</v>
+      </c>
+      <c r="N43">
+        <v>11178</v>
+      </c>
+      <c r="O43">
+        <v>10952</v>
+      </c>
+      <c r="P43">
+        <v>10606</v>
+      </c>
+      <c r="Q43">
+        <v>10274</v>
+      </c>
+      <c r="R43">
+        <v>11784</v>
+      </c>
+      <c r="S43">
+        <v>12055</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2005</v>
+      </c>
+      <c r="B44">
+        <v>9598.7999999999993</v>
+      </c>
+      <c r="C44">
+        <v>2016</v>
+      </c>
+      <c r="F44">
+        <v>2005</v>
+      </c>
+      <c r="G44">
+        <v>9197.4</v>
+      </c>
+      <c r="H44">
+        <v>9272.2000000000007</v>
+      </c>
+      <c r="I44">
+        <v>9598.7999999999993</v>
+      </c>
+      <c r="J44">
+        <v>9705</v>
+      </c>
+      <c r="K44">
+        <v>9601.9</v>
+      </c>
+      <c r="L44">
+        <v>9521.5</v>
+      </c>
+      <c r="M44">
+        <v>9608</v>
+      </c>
+      <c r="N44">
+        <v>9298.6</v>
+      </c>
+      <c r="O44">
+        <v>9056.9</v>
+      </c>
+      <c r="P44">
+        <v>8735.9</v>
+      </c>
+      <c r="Q44">
+        <v>8423.4</v>
+      </c>
+      <c r="R44">
+        <v>9597.5</v>
+      </c>
+      <c r="S44">
+        <v>9759.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2006</v>
+      </c>
+      <c r="B45">
+        <v>7390.6</v>
+      </c>
+      <c r="C45">
+        <v>2016</v>
+      </c>
+      <c r="F45">
+        <v>2006</v>
+      </c>
+      <c r="G45">
+        <v>7035.7</v>
+      </c>
+      <c r="H45">
+        <v>7110</v>
+      </c>
+      <c r="I45">
+        <v>7390.6</v>
+      </c>
+      <c r="J45">
+        <v>7446</v>
+      </c>
+      <c r="K45">
+        <v>7343.1</v>
+      </c>
+      <c r="L45">
+        <v>7261.9</v>
+      </c>
+      <c r="M45">
+        <v>7348.7</v>
+      </c>
+      <c r="N45">
+        <v>7059.8</v>
+      </c>
+      <c r="O45">
+        <v>6816.8</v>
+      </c>
+      <c r="P45">
+        <v>6542.8</v>
+      </c>
+      <c r="Q45">
+        <v>6340.2</v>
+      </c>
+      <c r="R45">
+        <v>7178.1</v>
+      </c>
+      <c r="S45">
+        <v>7950.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2007</v>
+      </c>
+      <c r="B46">
+        <v>6046.5</v>
+      </c>
+      <c r="C46">
+        <v>2016</v>
+      </c>
+      <c r="F46">
+        <v>2007</v>
+      </c>
+      <c r="G46">
+        <v>5683.6</v>
+      </c>
+      <c r="H46">
+        <v>5762.8</v>
+      </c>
+      <c r="I46">
+        <v>6046.5</v>
+      </c>
+      <c r="J46">
+        <v>6045</v>
+      </c>
+      <c r="K46">
+        <v>5932.6</v>
+      </c>
+      <c r="L46">
+        <v>5840</v>
+      </c>
+      <c r="M46">
+        <v>5953.8</v>
+      </c>
+      <c r="N46">
+        <v>5633</v>
+      </c>
+      <c r="O46">
+        <v>5352.1</v>
+      </c>
+      <c r="P46">
+        <v>5089.6000000000004</v>
+      </c>
+      <c r="Q46">
+        <v>5015.1000000000004</v>
+      </c>
+      <c r="R46">
+        <v>5363.4</v>
+      </c>
+      <c r="S46">
+        <v>6360.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2008</v>
+      </c>
+      <c r="B47">
+        <v>4945.8</v>
+      </c>
+      <c r="C47">
+        <v>2016</v>
+      </c>
+      <c r="F47">
+        <v>2008</v>
+      </c>
+      <c r="G47">
+        <v>4651.1000000000004</v>
+      </c>
+      <c r="H47">
+        <v>4726.3</v>
+      </c>
+      <c r="I47">
+        <v>4945.8</v>
+      </c>
+      <c r="J47">
+        <v>4849</v>
+      </c>
+      <c r="K47">
+        <v>4721.6000000000004</v>
+      </c>
+      <c r="L47">
+        <v>4607.2</v>
+      </c>
+      <c r="M47">
+        <v>4724.2</v>
+      </c>
+      <c r="N47">
+        <v>4392.8</v>
+      </c>
+      <c r="O47">
+        <v>4069.3</v>
+      </c>
+      <c r="P47">
+        <v>3809.2</v>
+      </c>
+      <c r="Q47">
+        <v>4222.2</v>
+      </c>
+      <c r="R47">
+        <v>4356.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2009</v>
+      </c>
+      <c r="B48">
+        <v>6374.1</v>
+      </c>
+      <c r="C48">
+        <v>2016</v>
+      </c>
+      <c r="F48">
+        <v>2009</v>
+      </c>
+      <c r="G48">
+        <v>5837.7</v>
+      </c>
+      <c r="H48">
+        <v>5943.4</v>
+      </c>
+      <c r="I48">
+        <v>6374.1</v>
+      </c>
+      <c r="J48">
+        <v>6331</v>
+      </c>
+      <c r="K48">
+        <v>6068.8</v>
+      </c>
+      <c r="L48">
+        <v>5879.7</v>
+      </c>
+      <c r="M48">
+        <v>6069.2</v>
+      </c>
+      <c r="N48">
+        <v>6172</v>
+      </c>
+      <c r="O48">
+        <v>5903.2</v>
+      </c>
+      <c r="P48">
+        <v>4761.6000000000004</v>
+      </c>
+      <c r="Q48">
+        <v>6239.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2010</v>
+      </c>
+      <c r="B49">
+        <v>6657.5</v>
+      </c>
+      <c r="C49">
+        <v>2016</v>
+      </c>
+      <c r="F49">
+        <v>2010</v>
+      </c>
+      <c r="G49">
+        <v>6185.8</v>
+      </c>
+      <c r="H49">
+        <v>6327.5</v>
+      </c>
+      <c r="I49">
+        <v>6657.5</v>
+      </c>
+      <c r="J49">
+        <v>6680</v>
+      </c>
+      <c r="K49">
+        <v>5936.8</v>
+      </c>
+      <c r="L49">
+        <v>5622.3</v>
+      </c>
+      <c r="M49">
+        <v>5768.9</v>
+      </c>
+      <c r="N49">
+        <v>6094.7</v>
+      </c>
+      <c r="O49">
+        <v>6168</v>
+      </c>
+      <c r="P49">
+        <v>4615.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2011</v>
+      </c>
+      <c r="B50">
+        <v>9637.7999999999993</v>
+      </c>
+      <c r="C50">
+        <v>2016</v>
+      </c>
+      <c r="F50">
+        <v>2011</v>
+      </c>
+      <c r="G50">
+        <v>8788</v>
+      </c>
+      <c r="H50">
+        <v>9107.2000000000007</v>
+      </c>
+      <c r="I50">
+        <v>9637.7999999999993</v>
+      </c>
+      <c r="J50">
+        <v>10053</v>
+      </c>
+      <c r="K50">
+        <v>8895.2999999999993</v>
+      </c>
+      <c r="L50">
+        <v>7927.5</v>
+      </c>
+      <c r="M50">
+        <v>7780.8</v>
+      </c>
+      <c r="N50">
+        <v>7823.2</v>
+      </c>
+      <c r="O50">
+        <v>9050</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2012</v>
+      </c>
+      <c r="B51">
+        <v>9626.7999999999993</v>
+      </c>
+      <c r="C51">
+        <v>2016</v>
+      </c>
+      <c r="F51">
+        <v>2012</v>
+      </c>
+      <c r="G51">
+        <v>8722.5</v>
+      </c>
+      <c r="H51">
+        <v>9051.2999999999993</v>
+      </c>
+      <c r="I51">
+        <v>9626.7999999999993</v>
+      </c>
+      <c r="J51">
+        <v>10164</v>
+      </c>
+      <c r="K51">
+        <v>8822.7000000000007</v>
+      </c>
+      <c r="L51">
+        <v>7853</v>
+      </c>
+      <c r="M51">
+        <v>7866.9</v>
+      </c>
+      <c r="N51">
+        <v>8340.7000000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2013</v>
+      </c>
+      <c r="B52">
+        <v>9504.4</v>
+      </c>
+      <c r="C52">
+        <v>2016</v>
+      </c>
+      <c r="F52">
+        <v>2013</v>
+      </c>
+      <c r="G52">
+        <v>8547.6</v>
+      </c>
+      <c r="H52">
+        <v>8873.6</v>
+      </c>
+      <c r="I52">
+        <v>9504.4</v>
+      </c>
+      <c r="J52">
+        <v>10337</v>
+      </c>
+      <c r="K52">
+        <v>9540.7999999999993</v>
+      </c>
+      <c r="L52">
+        <v>8261</v>
+      </c>
+      <c r="M52">
+        <v>8138.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2014</v>
+      </c>
+      <c r="B53">
+        <v>8947.7999999999993</v>
+      </c>
+      <c r="C53">
+        <v>2016</v>
+      </c>
+      <c r="F53">
+        <v>2014</v>
+      </c>
+      <c r="G53">
+        <v>7855.2</v>
+      </c>
+      <c r="H53">
+        <v>8143.2</v>
+      </c>
+      <c r="I53">
+        <v>8947.7999999999993</v>
+      </c>
+      <c r="J53">
+        <v>9805</v>
+      </c>
+      <c r="K53">
+        <v>8960.4</v>
+      </c>
+      <c r="L53">
+        <v>8045.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2015</v>
+      </c>
+      <c r="B54">
+        <v>12407</v>
+      </c>
+      <c r="C54">
+        <v>2016</v>
+      </c>
+      <c r="F54">
+        <v>2015</v>
+      </c>
+      <c r="G54">
+        <v>11345</v>
+      </c>
+      <c r="H54">
+        <v>11913</v>
+      </c>
+      <c r="I54">
+        <v>12407</v>
+      </c>
+      <c r="J54">
+        <v>10970</v>
+      </c>
+      <c r="K54">
+        <v>9203.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2016</v>
+      </c>
+      <c r="B55">
+        <v>13495</v>
+      </c>
+      <c r="C55">
+        <v>2016</v>
+      </c>
+      <c r="F55">
+        <v>2016</v>
+      </c>
+      <c r="G55">
+        <v>13293</v>
+      </c>
+      <c r="H55">
+        <v>13549</v>
+      </c>
+      <c r="I55">
+        <v>13495</v>
+      </c>
+      <c r="J55">
+        <v>11292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2017</v>
+      </c>
+      <c r="B56">
+        <v>13033</v>
+      </c>
+      <c r="C56">
+        <v>2016</v>
+      </c>
+      <c r="F56">
+        <v>2017</v>
+      </c>
+      <c r="G56">
+        <v>11785</v>
+      </c>
+      <c r="H56">
+        <v>12049</v>
+      </c>
+      <c r="I56">
+        <v>13033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f>A3</f>
+        <v>1964</v>
+      </c>
+      <c r="B57">
+        <v>1869</v>
+      </c>
+      <c r="C57" t="e">
+        <f>B2-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F57">
+        <v>2018</v>
+      </c>
+      <c r="G57">
+        <v>10202</v>
+      </c>
+      <c r="H57">
+        <v>10965</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f>A4</f>
+        <v>1965</v>
+      </c>
+      <c r="B58">
+        <v>2324</v>
+      </c>
+      <c r="C58" t="e">
+        <f>C57</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58">
+        <v>2019</v>
+      </c>
+      <c r="G58">
+        <v>9110.2000000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f>A5</f>
+        <v>1966</v>
+      </c>
+      <c r="B59">
+        <v>2563</v>
+      </c>
+      <c r="C59" t="e">
+        <f t="shared" ref="C59:C109" si="1">C58</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f>A6</f>
+        <v>1967</v>
+      </c>
+      <c r="B60">
+        <v>3888</v>
+      </c>
+      <c r="C60" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f>A7</f>
+        <v>1968</v>
+      </c>
+      <c r="B61">
+        <v>4495</v>
+      </c>
+      <c r="C61" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f>A8</f>
+        <v>1969</v>
+      </c>
+      <c r="B62">
+        <v>5690</v>
+      </c>
+      <c r="C62" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f>A9</f>
+        <v>1970</v>
+      </c>
+      <c r="B63">
+        <v>6424</v>
+      </c>
+      <c r="C63" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f>A10</f>
+        <v>1971</v>
+      </c>
+      <c r="B64">
+        <v>6858</v>
+      </c>
+      <c r="C64" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f>A11</f>
+        <v>1972</v>
+      </c>
+      <c r="B65">
+        <v>6431</v>
+      </c>
+      <c r="C65" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f>A12</f>
+        <v>1973</v>
+      </c>
+      <c r="B66">
+        <v>5161</v>
+      </c>
+      <c r="C66" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f>A13</f>
+        <v>1974</v>
+      </c>
+      <c r="B67">
+        <v>3846</v>
+      </c>
+      <c r="C67" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f>A14</f>
+        <v>1975</v>
+      </c>
+      <c r="B68">
+        <v>3868</v>
+      </c>
+      <c r="C68" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f>A15</f>
+        <v>1976</v>
+      </c>
+      <c r="B69">
+        <v>3872</v>
+      </c>
+      <c r="C69" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f>A16</f>
+        <v>1977</v>
+      </c>
+      <c r="B70">
+        <v>3939</v>
+      </c>
+      <c r="C70" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f>A17</f>
+        <v>1978</v>
+      </c>
+      <c r="B71">
+        <v>3888</v>
+      </c>
+      <c r="C71" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f>A18</f>
+        <v>1979</v>
+      </c>
+      <c r="B72">
+        <v>3859</v>
+      </c>
+      <c r="C72" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f>A19</f>
+        <v>1980</v>
+      </c>
+      <c r="B73">
+        <v>4887</v>
+      </c>
+      <c r="C73" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f>A20</f>
+        <v>1981</v>
+      </c>
+      <c r="B74">
+        <v>9054</v>
+      </c>
+      <c r="C74" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f>A21</f>
+        <v>1982</v>
+      </c>
+      <c r="B75">
+        <v>10289</v>
+      </c>
+      <c r="C75" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f>A22</f>
+        <v>1983</v>
+      </c>
+      <c r="B76">
+        <v>11383</v>
+      </c>
+      <c r="C76" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f>A23</f>
+        <v>1984</v>
+      </c>
+      <c r="B77">
+        <v>11040</v>
+      </c>
+      <c r="C77" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f>A24</f>
+        <v>1985</v>
+      </c>
+      <c r="B78">
+        <v>12951</v>
+      </c>
+      <c r="C78" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f>A25</f>
+        <v>1986</v>
+      </c>
+      <c r="B79">
+        <v>12019</v>
+      </c>
+      <c r="C79" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f>A26</f>
+        <v>1987</v>
+      </c>
+      <c r="B80">
+        <v>12334</v>
+      </c>
+      <c r="C80" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f>A27</f>
+        <v>1988</v>
+      </c>
+      <c r="B81">
+        <v>11536</v>
+      </c>
+      <c r="C81" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f>A28</f>
+        <v>1989</v>
+      </c>
+      <c r="B82">
+        <v>9700</v>
+      </c>
+      <c r="C82" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f>A29</f>
+        <v>1990</v>
+      </c>
+      <c r="B83">
+        <v>7701</v>
+      </c>
+      <c r="C83" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f>A30</f>
+        <v>1991</v>
+      </c>
+      <c r="B84">
+        <v>6063</v>
+      </c>
+      <c r="C84" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f>A31</f>
+        <v>1992</v>
+      </c>
+      <c r="B85">
+        <v>9472</v>
+      </c>
+      <c r="C85" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f>A32</f>
+        <v>1993</v>
+      </c>
+      <c r="B86">
+        <v>11712</v>
+      </c>
+      <c r="C86" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f>A33</f>
+        <v>1994</v>
+      </c>
+      <c r="B87">
+        <v>11418</v>
+      </c>
+      <c r="C87" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f>A34</f>
+        <v>1995</v>
+      </c>
+      <c r="B88">
+        <v>13177</v>
+      </c>
+      <c r="C88" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f>A35</f>
+        <v>1996</v>
+      </c>
+      <c r="B89">
+        <v>11358</v>
+      </c>
+      <c r="C89" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f>A36</f>
+        <v>1997</v>
+      </c>
+      <c r="B90">
+        <v>9940</v>
+      </c>
+      <c r="C90" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f>A37</f>
+        <v>1998</v>
+      </c>
+      <c r="B91">
+        <v>9990</v>
+      </c>
+      <c r="C91" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f>A38</f>
+        <v>1999</v>
+      </c>
+      <c r="B92">
+        <v>10853</v>
+      </c>
+      <c r="C92" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f>A39</f>
+        <v>2000</v>
+      </c>
+      <c r="B93">
+        <v>10068</v>
+      </c>
+      <c r="C93" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f>A40</f>
+        <v>2001</v>
+      </c>
+      <c r="B94">
+        <v>9854</v>
+      </c>
+      <c r="C94" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f>A41</f>
+        <v>2002</v>
+      </c>
+      <c r="B95">
+        <v>10276</v>
+      </c>
+      <c r="C95" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f>A42</f>
+        <v>2003</v>
+      </c>
+      <c r="B96">
+        <v>12365</v>
+      </c>
+      <c r="C96" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f>A43</f>
+        <v>2004</v>
+      </c>
+      <c r="B97">
+        <v>11591</v>
+      </c>
+      <c r="C97" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f>A44</f>
+        <v>2005</v>
+      </c>
+      <c r="B98">
+        <v>9705</v>
+      </c>
+      <c r="C98" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f>A45</f>
+        <v>2006</v>
+      </c>
+      <c r="B99">
+        <v>7446</v>
+      </c>
+      <c r="C99" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f>A46</f>
+        <v>2007</v>
+      </c>
+      <c r="B100">
+        <v>6045</v>
+      </c>
+      <c r="C100" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f>A47</f>
+        <v>2008</v>
+      </c>
+      <c r="B101">
+        <v>4849</v>
+      </c>
+      <c r="C101" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f>A48</f>
+        <v>2009</v>
+      </c>
+      <c r="B102">
+        <v>6331</v>
+      </c>
+      <c r="C102" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f>A49</f>
+        <v>2010</v>
+      </c>
+      <c r="B103">
+        <v>6680</v>
+      </c>
+      <c r="C103" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f>A50</f>
+        <v>2011</v>
+      </c>
+      <c r="B104">
+        <v>10053</v>
+      </c>
+      <c r="C104" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f>A51</f>
+        <v>2012</v>
+      </c>
+      <c r="B105">
+        <v>10164</v>
+      </c>
+      <c r="C105" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f>A52</f>
+        <v>2013</v>
+      </c>
+      <c r="B106">
+        <v>10337</v>
+      </c>
+      <c r="C106" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f>A53</f>
+        <v>2014</v>
+      </c>
+      <c r="B107">
+        <v>9805</v>
+      </c>
+      <c r="C107" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f>A54</f>
+        <v>2015</v>
+      </c>
+      <c r="B108">
+        <v>10970</v>
+      </c>
+      <c r="C108" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f>A55</f>
+        <v>2016</v>
+      </c>
+      <c r="B109">
+        <v>11292</v>
+      </c>
+      <c r="C109" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f>A57</f>
+        <v>1964</v>
+      </c>
+      <c r="B110">
+        <v>1622.2</v>
+      </c>
+      <c r="C110">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f t="shared" ref="A111:A161" si="2">A58</f>
+        <v>1965</v>
+      </c>
+      <c r="B111">
+        <v>2076.6</v>
+      </c>
+      <c r="C111">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f t="shared" si="2"/>
+        <v>1966</v>
+      </c>
+      <c r="B112">
+        <v>2186.3000000000002</v>
+      </c>
+      <c r="C112">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f t="shared" si="2"/>
+        <v>1967</v>
+      </c>
+      <c r="B113">
+        <v>3397.3</v>
+      </c>
+      <c r="C113">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f t="shared" si="2"/>
+        <v>1968</v>
+      </c>
+      <c r="B114">
+        <v>3870.9</v>
+      </c>
+      <c r="C114">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f t="shared" si="2"/>
+        <v>1969</v>
+      </c>
+      <c r="B115">
+        <v>5220.3999999999996</v>
+      </c>
+      <c r="C115">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f t="shared" si="2"/>
+        <v>1970</v>
+      </c>
+      <c r="B116">
+        <v>6252.8</v>
+      </c>
+      <c r="C116">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f t="shared" si="2"/>
+        <v>1971</v>
+      </c>
+      <c r="B117">
+        <v>6945.8</v>
+      </c>
+      <c r="C117">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f t="shared" si="2"/>
+        <v>1972</v>
+      </c>
+      <c r="B118">
+        <v>6353</v>
+      </c>
+      <c r="C118">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <f t="shared" si="2"/>
+        <v>1973</v>
+      </c>
+      <c r="B119">
+        <v>4748.6000000000004</v>
+      </c>
+      <c r="C119">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <f t="shared" si="2"/>
+        <v>1974</v>
+      </c>
+      <c r="B120">
+        <v>3348.1</v>
+      </c>
+      <c r="C120">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <f t="shared" si="2"/>
+        <v>1975</v>
+      </c>
+      <c r="B121">
+        <v>3554.2</v>
+      </c>
+      <c r="C121">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <f t="shared" si="2"/>
+        <v>1976</v>
+      </c>
+      <c r="B122">
+        <v>3609.4</v>
+      </c>
+      <c r="C122">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <f t="shared" si="2"/>
+        <v>1977</v>
+      </c>
+      <c r="B123">
+        <v>3642.6</v>
+      </c>
+      <c r="C123">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <f t="shared" si="2"/>
+        <v>1978</v>
+      </c>
+      <c r="B124">
+        <v>3556.6</v>
+      </c>
+      <c r="C124">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <f t="shared" si="2"/>
+        <v>1979</v>
+      </c>
+      <c r="B125">
+        <v>3426.3</v>
+      </c>
+      <c r="C125">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="B126">
+        <v>4372.1000000000004</v>
+      </c>
+      <c r="C126">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <f t="shared" si="2"/>
+        <v>1981</v>
+      </c>
+      <c r="B127">
+        <v>8527.7000000000007</v>
+      </c>
+      <c r="C127">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <f t="shared" si="2"/>
+        <v>1982</v>
+      </c>
+      <c r="B128">
+        <v>9766.5</v>
+      </c>
+      <c r="C128">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <f t="shared" si="2"/>
+        <v>1983</v>
+      </c>
+      <c r="B129">
+        <v>10911</v>
+      </c>
+      <c r="C129">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <f t="shared" si="2"/>
+        <v>1984</v>
+      </c>
+      <c r="B130">
+        <v>10601</v>
+      </c>
+      <c r="C130">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <f t="shared" si="2"/>
+        <v>1985</v>
+      </c>
+      <c r="B131">
+        <v>12838</v>
+      </c>
+      <c r="C131">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>1986</v>
+      </c>
+      <c r="B132">
+        <v>12036</v>
+      </c>
+      <c r="C132">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>1987</v>
+      </c>
+      <c r="B133">
+        <v>12615</v>
+      </c>
+      <c r="C133">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>1988</v>
+      </c>
+      <c r="B134">
+        <v>11906</v>
+      </c>
+      <c r="C134">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>1989</v>
+      </c>
+      <c r="B135">
+        <v>10128</v>
+      </c>
+      <c r="C135">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>1990</v>
+      </c>
+      <c r="B136">
+        <v>8101.9</v>
+      </c>
+      <c r="C136">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>1991</v>
+      </c>
+      <c r="B137">
+        <v>6331.4</v>
+      </c>
+      <c r="C137">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>1992</v>
+      </c>
+      <c r="B138">
+        <v>9704.5</v>
+      </c>
+      <c r="C138">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>1993</v>
+      </c>
+      <c r="B139">
+        <v>11840</v>
+      </c>
+      <c r="C139">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>1994</v>
+      </c>
+      <c r="B140">
+        <v>11402</v>
+      </c>
+      <c r="C140">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <f t="shared" si="2"/>
+        <v>1995</v>
+      </c>
+      <c r="B141">
+        <v>13135</v>
+      </c>
+      <c r="C141">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>1996</v>
+      </c>
+      <c r="B142">
+        <v>11235</v>
+      </c>
+      <c r="C142">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>1997</v>
+      </c>
+      <c r="B143">
+        <v>9816.4</v>
+      </c>
+      <c r="C143">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="B144">
+        <v>9906.7999999999993</v>
+      </c>
+      <c r="C144">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="B145">
+        <v>10799</v>
+      </c>
+      <c r="C145">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="B146">
+        <v>10031</v>
+      </c>
+      <c r="C146">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>2001</v>
+      </c>
+      <c r="B147">
+        <v>9818.9</v>
+      </c>
+      <c r="C147">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>2002</v>
+      </c>
+      <c r="B148">
+        <v>10221</v>
+      </c>
+      <c r="C148">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>2003</v>
+      </c>
+      <c r="B149">
+        <v>12278</v>
+      </c>
+      <c r="C149">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>2004</v>
+      </c>
+      <c r="B150">
+        <v>11493</v>
+      </c>
+      <c r="C150">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>2005</v>
+      </c>
+      <c r="B151">
+        <v>9601.9</v>
+      </c>
+      <c r="C151">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>2006</v>
+      </c>
+      <c r="B152">
+        <v>7343.1</v>
+      </c>
+      <c r="C152">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+      <c r="B153">
+        <v>5932.6</v>
+      </c>
+      <c r="C153">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <f t="shared" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="B154">
+        <v>4721.6000000000004</v>
+      </c>
+      <c r="C154">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <f t="shared" si="2"/>
+        <v>2009</v>
+      </c>
+      <c r="B155">
+        <v>6068.8</v>
+      </c>
+      <c r="C155">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>2010</v>
+      </c>
+      <c r="B156">
+        <v>5936.8</v>
+      </c>
+      <c r="C156">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="B157">
+        <v>8895.2999999999993</v>
+      </c>
+      <c r="C157">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="B158">
+        <v>8822.7000000000007</v>
+      </c>
+      <c r="C158">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <f t="shared" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="B159">
+        <v>9540.7999999999993</v>
+      </c>
+      <c r="C159">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <f t="shared" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="B160">
+        <v>8960.4</v>
+      </c>
+      <c r="C160">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B161">
+        <v>9203.4</v>
+      </c>
+      <c r="C161">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <f>A57</f>
+        <v>1964</v>
+      </c>
+      <c r="B162">
+        <v>1602</v>
+      </c>
+      <c r="C162">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <f t="shared" ref="A163:A213" si="3">A58</f>
+        <v>1965</v>
+      </c>
+      <c r="B163">
+        <v>2051.4</v>
+      </c>
+      <c r="C163">
+        <f t="shared" ref="C163:C174" si="4">C110-1</f>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <f t="shared" si="3"/>
+        <v>1966</v>
+      </c>
+      <c r="B164">
+        <v>2149.6</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="4"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f t="shared" si="3"/>
+        <v>1967</v>
+      </c>
+      <c r="B165">
+        <v>3344</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="4"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" si="3"/>
+        <v>1968</v>
+      </c>
+      <c r="B166">
+        <v>3800</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="4"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f t="shared" si="3"/>
+        <v>1969</v>
+      </c>
+      <c r="B167">
+        <v>5145.2</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="4"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <f t="shared" si="3"/>
+        <v>1970</v>
+      </c>
+      <c r="B168">
+        <v>6178.6</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="4"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <f t="shared" si="3"/>
+        <v>1971</v>
+      </c>
+      <c r="B169">
+        <v>6884.2</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="4"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <f t="shared" si="3"/>
+        <v>1972</v>
+      </c>
+      <c r="B170">
+        <v>6299</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="4"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <f t="shared" si="3"/>
+        <v>1973</v>
+      </c>
+      <c r="B171">
+        <v>4692</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="4"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <f t="shared" si="3"/>
+        <v>1974</v>
+      </c>
+      <c r="B172">
+        <v>3291.1</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="4"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <f t="shared" si="3"/>
+        <v>1975</v>
+      </c>
+      <c r="B173">
+        <v>3515.5</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="4"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <f t="shared" si="3"/>
+        <v>1976</v>
+      </c>
+      <c r="B174">
+        <v>3577.9</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="4"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <f t="shared" si="3"/>
+        <v>1977</v>
+      </c>
+      <c r="B175">
+        <v>3612.5</v>
+      </c>
+      <c r="C175">
+        <f t="shared" ref="C175:C213" si="5">C122-1</f>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <f t="shared" si="3"/>
+        <v>1978</v>
+      </c>
+      <c r="B176">
+        <v>3524</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <f t="shared" si="3"/>
+        <v>1979</v>
+      </c>
+      <c r="B177">
+        <v>3386.9</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <f t="shared" si="3"/>
+        <v>1980</v>
+      </c>
+      <c r="B178">
+        <v>4307.3999999999996</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <f t="shared" si="3"/>
+        <v>1981</v>
+      </c>
+      <c r="B179">
+        <v>8320.7999999999993</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f t="shared" si="3"/>
+        <v>1982</v>
+      </c>
+      <c r="B180">
+        <v>9496.9</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <f t="shared" si="3"/>
+        <v>1983</v>
+      </c>
+      <c r="B181">
+        <v>10560</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <f t="shared" si="3"/>
+        <v>1984</v>
+      </c>
+      <c r="B182">
+        <v>10239</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f t="shared" si="3"/>
+        <v>1985</v>
+      </c>
+      <c r="B183">
+        <v>12409</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f t="shared" si="3"/>
+        <v>1986</v>
+      </c>
+      <c r="B184">
+        <v>11621</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" si="3"/>
+        <v>1987</v>
+      </c>
+      <c r="B185">
+        <v>12243</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" si="3"/>
+        <v>1988</v>
+      </c>
+      <c r="B186">
+        <v>11583</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f t="shared" si="3"/>
+        <v>1989</v>
+      </c>
+      <c r="B187">
+        <v>9860.9</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f t="shared" si="3"/>
+        <v>1990</v>
+      </c>
+      <c r="B188">
+        <v>7891.2</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f t="shared" si="3"/>
+        <v>1991</v>
+      </c>
+      <c r="B189">
+        <v>6170.8</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <f t="shared" si="3"/>
+        <v>1992</v>
+      </c>
+      <c r="B190">
+        <v>9561.7000000000007</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <f t="shared" si="3"/>
+        <v>1993</v>
+      </c>
+      <c r="B191">
+        <v>11712</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <f t="shared" si="3"/>
+        <v>1994</v>
+      </c>
+      <c r="B192">
+        <v>11306</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <f t="shared" si="3"/>
+        <v>1995</v>
+      </c>
+      <c r="B193">
+        <v>13074</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <f t="shared" si="3"/>
+        <v>1996</v>
+      </c>
+      <c r="B194">
+        <v>11198</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <f t="shared" si="3"/>
+        <v>1997</v>
+      </c>
+      <c r="B195">
+        <v>9801.2000000000007</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <f t="shared" si="3"/>
+        <v>1998</v>
+      </c>
+      <c r="B196">
+        <v>9902.7000000000007</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <f t="shared" si="3"/>
+        <v>1999</v>
+      </c>
+      <c r="B197">
+        <v>10791</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="B198">
+        <v>10020</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <f t="shared" si="3"/>
+        <v>2001</v>
+      </c>
+      <c r="B199">
+        <v>9802.5</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <f t="shared" si="3"/>
+        <v>2002</v>
+      </c>
+      <c r="B200">
+        <v>10182</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <f t="shared" si="3"/>
+        <v>2003</v>
+      </c>
+      <c r="B201">
+        <v>12211</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <f t="shared" si="3"/>
+        <v>2004</v>
+      </c>
+      <c r="B202">
+        <v>11416</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <f t="shared" si="3"/>
+        <v>2005</v>
+      </c>
+      <c r="B203">
+        <v>9521.5</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <f t="shared" si="3"/>
+        <v>2006</v>
+      </c>
+      <c r="B204">
+        <v>7261.9</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <f t="shared" si="3"/>
+        <v>2007</v>
+      </c>
+      <c r="B205">
+        <v>5840</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <f t="shared" si="3"/>
+        <v>2008</v>
+      </c>
+      <c r="B206">
+        <v>4607.2</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <f t="shared" si="3"/>
+        <v>2009</v>
+      </c>
+      <c r="B207">
+        <v>5879.7</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <f t="shared" si="3"/>
+        <v>2010</v>
+      </c>
+      <c r="B208">
+        <v>5622.3</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+      <c r="B209">
+        <v>7927.5</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+      <c r="B210">
+        <v>7853</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <f t="shared" si="3"/>
+        <v>2013</v>
+      </c>
+      <c r="B211">
+        <v>8261</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <f t="shared" si="3"/>
+        <v>2014</v>
+      </c>
+      <c r="B212">
+        <v>8045.3</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B213">
+        <v>7778.4</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <f>A3</f>
+        <v>1964</v>
+      </c>
+      <c r="B214">
+        <v>1608.1</v>
+      </c>
+      <c r="C214">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <f t="shared" ref="A215:A264" si="6">A4</f>
+        <v>1965</v>
+      </c>
+      <c r="B215">
+        <v>2059.1999999999998</v>
+      </c>
+      <c r="C215">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <f t="shared" si="6"/>
+        <v>1966</v>
+      </c>
+      <c r="B216">
+        <v>2157.4</v>
+      </c>
+      <c r="C216">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <f t="shared" si="6"/>
+        <v>1967</v>
+      </c>
+      <c r="B217">
+        <v>3352.9</v>
+      </c>
+      <c r="C217">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <f t="shared" si="6"/>
+        <v>1968</v>
+      </c>
+      <c r="B218">
+        <v>3808.5</v>
+      </c>
+      <c r="C218">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <f t="shared" si="6"/>
+        <v>1969</v>
+      </c>
+      <c r="B219">
+        <v>5154.3</v>
+      </c>
+      <c r="C219">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <f t="shared" si="6"/>
+        <v>1970</v>
+      </c>
+      <c r="B220">
+        <v>6187.9</v>
+      </c>
+      <c r="C220">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <f t="shared" si="6"/>
+        <v>1971</v>
+      </c>
+      <c r="B221">
+        <v>6893.7</v>
+      </c>
+      <c r="C221">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <f t="shared" si="6"/>
+        <v>1972</v>
+      </c>
+      <c r="B222">
+        <v>6308.1</v>
+      </c>
+      <c r="C222">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <f t="shared" si="6"/>
+        <v>1973</v>
+      </c>
+      <c r="B223">
+        <v>4700.2</v>
+      </c>
+      <c r="C223">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <f t="shared" si="6"/>
+        <v>1974</v>
+      </c>
+      <c r="B224">
+        <v>3298.4</v>
+      </c>
+      <c r="C224">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <f t="shared" si="6"/>
+        <v>1975</v>
+      </c>
+      <c r="B225">
+        <v>3523</v>
+      </c>
+      <c r="C225">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <f t="shared" si="6"/>
+        <v>1976</v>
+      </c>
+      <c r="B226">
+        <v>3587</v>
+      </c>
+      <c r="C226">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <f t="shared" si="6"/>
+        <v>1977</v>
+      </c>
+      <c r="B227">
+        <v>3623.7</v>
+      </c>
+      <c r="C227">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <f t="shared" si="6"/>
+        <v>1978</v>
+      </c>
+      <c r="B228">
+        <v>3537.1</v>
+      </c>
+      <c r="C228">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <f t="shared" si="6"/>
+        <v>1979</v>
+      </c>
+      <c r="B229">
+        <v>3402.6</v>
+      </c>
+      <c r="C229">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <f t="shared" si="6"/>
+        <v>1980</v>
+      </c>
+      <c r="B230">
+        <v>4332.6000000000004</v>
+      </c>
+      <c r="C230">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <f t="shared" si="6"/>
+        <v>1981</v>
+      </c>
+      <c r="B231">
+        <v>8363.5</v>
+      </c>
+      <c r="C231">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <f t="shared" si="6"/>
+        <v>1982</v>
+      </c>
+      <c r="B232">
+        <v>9548.7999999999993</v>
+      </c>
+      <c r="C232">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <f t="shared" si="6"/>
+        <v>1983</v>
+      </c>
+      <c r="B233">
+        <v>10621</v>
+      </c>
+      <c r="C233">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <f t="shared" si="6"/>
+        <v>1984</v>
+      </c>
+      <c r="B234">
+        <v>10300</v>
+      </c>
+      <c r="C234">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <f t="shared" si="6"/>
+        <v>1985</v>
+      </c>
+      <c r="B235">
+        <v>12478</v>
+      </c>
+      <c r="C235">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <f t="shared" si="6"/>
+        <v>1986</v>
+      </c>
+      <c r="B236">
+        <v>11685</v>
+      </c>
+      <c r="C236">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <f t="shared" si="6"/>
+        <v>1987</v>
+      </c>
+      <c r="B237">
+        <v>12308</v>
+      </c>
+      <c r="C237">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <f t="shared" si="6"/>
+        <v>1988</v>
+      </c>
+      <c r="B238">
+        <v>11642</v>
+      </c>
+      <c r="C238">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <f t="shared" si="6"/>
+        <v>1989</v>
+      </c>
+      <c r="B239">
+        <v>9912.7000000000007</v>
+      </c>
+      <c r="C239">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <f t="shared" si="6"/>
+        <v>1990</v>
+      </c>
+      <c r="B240">
+        <v>7935.9</v>
+      </c>
+      <c r="C240">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <f t="shared" si="6"/>
+        <v>1991</v>
+      </c>
+      <c r="B241">
+        <v>6209.3</v>
+      </c>
+      <c r="C241">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <f t="shared" si="6"/>
+        <v>1992</v>
+      </c>
+      <c r="B242">
+        <v>9601.7999999999993</v>
+      </c>
+      <c r="C242">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <f t="shared" si="6"/>
+        <v>1993</v>
+      </c>
+      <c r="B243">
+        <v>11754</v>
+      </c>
+      <c r="C243">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <f t="shared" si="6"/>
+        <v>1994</v>
+      </c>
+      <c r="B244">
+        <v>11341</v>
+      </c>
+      <c r="C244">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <f t="shared" si="6"/>
+        <v>1995</v>
+      </c>
+      <c r="B245">
+        <v>13109</v>
+      </c>
+      <c r="C245">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <f t="shared" si="6"/>
+        <v>1996</v>
+      </c>
+      <c r="B246">
+        <v>11229</v>
+      </c>
+      <c r="C246">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <f t="shared" si="6"/>
+        <v>1997</v>
+      </c>
+      <c r="B247">
+        <v>9828.1</v>
+      </c>
+      <c r="C247">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <f t="shared" si="6"/>
+        <v>1998</v>
+      </c>
+      <c r="B248">
+        <v>9929.2999999999993</v>
+      </c>
+      <c r="C248">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <f t="shared" si="6"/>
+        <v>1999</v>
+      </c>
+      <c r="B249">
+        <v>10819</v>
+      </c>
+      <c r="C249">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="B250">
+        <v>10044</v>
+      </c>
+      <c r="C250">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <f t="shared" si="6"/>
+        <v>2001</v>
+      </c>
+      <c r="B251">
+        <v>9829.9</v>
+      </c>
+      <c r="C251">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <f t="shared" si="6"/>
+        <v>2002</v>
+      </c>
+      <c r="B252">
+        <v>10230</v>
+      </c>
+      <c r="C252">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <f t="shared" si="6"/>
+        <v>2003</v>
+      </c>
+      <c r="B253">
+        <v>12269</v>
+      </c>
+      <c r="C253">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <f t="shared" si="6"/>
+        <v>2004</v>
+      </c>
+      <c r="B254">
+        <v>11491</v>
+      </c>
+      <c r="C254">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <f t="shared" si="6"/>
+        <v>2005</v>
+      </c>
+      <c r="B255">
+        <v>9608</v>
+      </c>
+      <c r="C255">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <f t="shared" si="6"/>
+        <v>2006</v>
+      </c>
+      <c r="B256">
+        <v>7348.7</v>
+      </c>
+      <c r="C256">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <f t="shared" si="6"/>
+        <v>2007</v>
+      </c>
+      <c r="B257">
+        <v>5953.8</v>
+      </c>
+      <c r="C257">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <f t="shared" si="6"/>
+        <v>2008</v>
+      </c>
+      <c r="B258">
+        <v>4724.2</v>
+      </c>
+      <c r="C258">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <f t="shared" si="6"/>
+        <v>2009</v>
+      </c>
+      <c r="B259">
+        <v>6069.2</v>
+      </c>
+      <c r="C259">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <f t="shared" si="6"/>
+        <v>2010</v>
+      </c>
+      <c r="B260">
+        <v>5768.9</v>
+      </c>
+      <c r="C260">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <f t="shared" si="6"/>
+        <v>2011</v>
+      </c>
+      <c r="B261">
+        <v>7780.8</v>
+      </c>
+      <c r="C261">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <f t="shared" si="6"/>
+        <v>2012</v>
+      </c>
+      <c r="B262">
+        <v>7866.9</v>
+      </c>
+      <c r="C262">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <f t="shared" si="6"/>
+        <v>2013</v>
+      </c>
+      <c r="B263">
+        <v>8138.1</v>
+      </c>
+      <c r="C263">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <f t="shared" si="6"/>
+        <v>2014</v>
+      </c>
+      <c r="B264">
+        <v>7946.1</v>
+      </c>
+      <c r="C264">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B265">
+        <v>1601.5</v>
+      </c>
+      <c r="C265">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B266">
+        <v>2050.3000000000002</v>
+      </c>
+      <c r="C266">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B267">
+        <v>2158.8000000000002</v>
+      </c>
+      <c r="C267">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B268">
+        <v>3364.8</v>
+      </c>
+      <c r="C268">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B269">
+        <v>3838.1</v>
+      </c>
+      <c r="C269">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B270">
+        <v>5187.1000000000004</v>
+      </c>
+      <c r="C270">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B271">
+        <v>6221.4</v>
+      </c>
+      <c r="C271">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B272">
+        <v>6917.7</v>
+      </c>
+      <c r="C272">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B273">
+        <v>6328.9</v>
+      </c>
+      <c r="C273">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B274">
+        <v>4727.6000000000004</v>
+      </c>
+      <c r="C274">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B275">
+        <v>3329.3</v>
+      </c>
+      <c r="C275">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>3533.4</v>
+      </c>
+      <c r="C276">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B277">
+        <v>3580.3</v>
+      </c>
+      <c r="C277">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B278">
+        <v>3598.2</v>
+      </c>
+      <c r="C278">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B279">
+        <v>3496.6</v>
+      </c>
+      <c r="C279">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>3342.5</v>
+      </c>
+      <c r="C280">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B281">
+        <v>4229.6000000000004</v>
+      </c>
+      <c r="C281">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B282">
+        <v>8159.6</v>
+      </c>
+      <c r="C282">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B283">
+        <v>9313.2999999999993</v>
+      </c>
+      <c r="C283">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B284">
+        <v>10340</v>
+      </c>
+      <c r="C284">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B285">
+        <v>10031</v>
+      </c>
+      <c r="C285">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B286">
+        <v>12186</v>
+      </c>
+      <c r="C286">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B287">
+        <v>11426</v>
+      </c>
+      <c r="C287">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B288">
+        <v>12063</v>
+      </c>
+      <c r="C288">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B289">
+        <v>11424</v>
+      </c>
+      <c r="C289">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B290">
+        <v>9723.9</v>
+      </c>
+      <c r="C290">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B291">
+        <v>7764.1</v>
+      </c>
+      <c r="C291">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B292">
+        <v>6048.8</v>
+      </c>
+      <c r="C292">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B293">
+        <v>9411</v>
+      </c>
+      <c r="C293">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B294">
+        <v>11543</v>
+      </c>
+      <c r="C294">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B295">
+        <v>11146</v>
+      </c>
+      <c r="C295">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B296">
+        <v>12883</v>
+      </c>
+      <c r="C296">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B297">
+        <v>11019</v>
+      </c>
+      <c r="C297">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B298">
+        <v>9626.5</v>
+      </c>
+      <c r="C298">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B299">
+        <v>9721.7999999999993</v>
+      </c>
+      <c r="C299">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B300">
+        <v>10607</v>
+      </c>
+      <c r="C300">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B301">
+        <v>9840.7000000000007</v>
+      </c>
+      <c r="C301">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B302">
+        <v>9615.7000000000007</v>
+      </c>
+      <c r="C302">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B303">
+        <v>9987.6</v>
+      </c>
+      <c r="C303">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B304">
+        <v>11974</v>
+      </c>
+      <c r="C304">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B305">
+        <v>11178</v>
+      </c>
+      <c r="C305">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B306">
+        <v>9298.6</v>
+      </c>
+      <c r="C306">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B307">
+        <v>7059.8</v>
+      </c>
+      <c r="C307">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B308">
+        <v>5633</v>
+      </c>
+      <c r="C308">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B309">
+        <v>4392.8</v>
+      </c>
+      <c r="C309">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B310">
+        <v>6172</v>
+      </c>
+      <c r="C310">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B311">
+        <v>6094.7</v>
+      </c>
+      <c r="C311">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B312">
+        <v>7823.2</v>
+      </c>
+      <c r="C312">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B313">
+        <v>8340.7000000000007</v>
+      </c>
+      <c r="C313">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B314">
+        <v>1583.6</v>
+      </c>
+      <c r="C314">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B315">
+        <v>2000.5</v>
+      </c>
+      <c r="C315">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B316">
+        <v>1935.9</v>
+      </c>
+      <c r="C316">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B317">
+        <v>3130</v>
+      </c>
+      <c r="C317">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B318">
+        <v>3475.5</v>
+      </c>
+      <c r="C318">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B319">
+        <v>4867.7</v>
+      </c>
+      <c r="C319">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B320">
+        <v>5962.2</v>
+      </c>
+      <c r="C320">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B321">
+        <v>6774.6</v>
+      </c>
+      <c r="C321">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B322">
+        <v>6268.2</v>
+      </c>
+      <c r="C322">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B323">
+        <v>4538.8</v>
+      </c>
+      <c r="C323">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B324">
+        <v>3077.6</v>
+      </c>
+      <c r="C324">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B325">
+        <v>3360.1</v>
+      </c>
+      <c r="C325">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B326">
+        <v>3454.7</v>
+      </c>
+      <c r="C326">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B327">
+        <v>3493.7</v>
+      </c>
+      <c r="C327">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B328">
+        <v>3382.9</v>
+      </c>
+      <c r="C328">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B329">
+        <v>3259.4</v>
+      </c>
+      <c r="C329">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B330">
+        <v>4190.6000000000004</v>
+      </c>
+      <c r="C330">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B331">
+        <v>8166.2</v>
+      </c>
+      <c r="C331">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B332">
+        <v>9321.1</v>
+      </c>
+      <c r="C332">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B333">
+        <v>10345</v>
+      </c>
+      <c r="C333">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B334">
+        <v>10029</v>
+      </c>
+      <c r="C334">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B335">
+        <v>12213</v>
+      </c>
+      <c r="C335">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B336">
+        <v>11440</v>
+      </c>
+      <c r="C336">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B337">
+        <v>12080</v>
+      </c>
+      <c r="C337">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B338">
+        <v>11372</v>
+      </c>
+      <c r="C338">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B339">
+        <v>9644.2999999999993</v>
+      </c>
+      <c r="C339">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B340">
+        <v>7657.5</v>
+      </c>
+      <c r="C340">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B341">
+        <v>5889.5</v>
+      </c>
+      <c r="C341">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B342">
+        <v>9292.2000000000007</v>
+      </c>
+      <c r="C342">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B343">
+        <v>11466</v>
+      </c>
+      <c r="C343">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B344">
+        <v>11050</v>
+      </c>
+      <c r="C344">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B345">
+        <v>12748</v>
+      </c>
+      <c r="C345">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B346">
+        <v>10874</v>
+      </c>
+      <c r="C346">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B347">
+        <v>9457.1</v>
+      </c>
+      <c r="C347">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B348">
+        <v>9555.5</v>
+      </c>
+      <c r="C348">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B349">
+        <v>10482</v>
+      </c>
+      <c r="C349">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B350">
+        <v>9721.7999999999993</v>
+      </c>
+      <c r="C350">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B351">
+        <v>9481.2999999999993</v>
+      </c>
+      <c r="C351">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B352">
+        <v>9818.1</v>
+      </c>
+      <c r="C352">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B353">
+        <v>11780</v>
+      </c>
+      <c r="C353">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B354">
+        <v>10952</v>
+      </c>
+      <c r="C354">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B355">
+        <v>9056.9</v>
+      </c>
+      <c r="C355">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B356">
+        <v>6816.8</v>
+      </c>
+      <c r="C356">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B357">
+        <v>5352.1</v>
+      </c>
+      <c r="C357">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B358">
+        <v>4069.3</v>
+      </c>
+      <c r="C358">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B359">
+        <v>5903.2</v>
+      </c>
+      <c r="C359">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B360">
+        <v>6168</v>
+      </c>
+      <c r="C360">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B361">
+        <v>9050</v>
+      </c>
+      <c r="C361">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B362">
+        <v>1564.3</v>
+      </c>
+      <c r="C362">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B363">
+        <v>2007.8</v>
+      </c>
+      <c r="C363">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B364">
+        <v>1947.4</v>
+      </c>
+      <c r="C364">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B365">
+        <v>3148.8</v>
+      </c>
+      <c r="C365">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B366">
+        <v>3510.3</v>
+      </c>
+      <c r="C366">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B367">
+        <v>5006.8999999999996</v>
+      </c>
+      <c r="C367">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B368">
+        <v>6158.5</v>
+      </c>
+      <c r="C368">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B369">
+        <v>6949.4</v>
+      </c>
+      <c r="C369">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B370">
+        <v>6444.4</v>
+      </c>
+      <c r="C370">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B371">
+        <v>4695.5</v>
+      </c>
+      <c r="C371">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B372">
+        <v>3195.5</v>
+      </c>
+      <c r="C372">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B373">
+        <v>3383.7</v>
+      </c>
+      <c r="C373">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B374">
+        <v>3430.9</v>
+      </c>
+      <c r="C374">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B375">
+        <v>3456.5</v>
+      </c>
+      <c r="C375">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B376">
+        <v>3340</v>
+      </c>
+      <c r="C376">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B377">
+        <v>3211.9</v>
+      </c>
+      <c r="C377">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B378">
+        <v>4123.8</v>
+      </c>
+      <c r="C378">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B379">
+        <v>8031</v>
+      </c>
+      <c r="C379">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B380">
+        <v>9164.5</v>
+      </c>
+      <c r="C380">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B381">
+        <v>10168</v>
+      </c>
+      <c r="C381">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B382">
+        <v>9856.5</v>
+      </c>
+      <c r="C382">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B383">
+        <v>12027</v>
+      </c>
+      <c r="C383">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B384">
+        <v>11269</v>
+      </c>
+      <c r="C384">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B385">
+        <v>11915</v>
+      </c>
+      <c r="C385">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B386">
+        <v>11227</v>
+      </c>
+      <c r="C386">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B387">
+        <v>9520.6</v>
+      </c>
+      <c r="C387">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B388">
+        <v>7558.3</v>
+      </c>
+      <c r="C388">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B389">
+        <v>5811.2</v>
+      </c>
+      <c r="C389">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B390">
+        <v>9211</v>
+      </c>
+      <c r="C390">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B391">
+        <v>11388</v>
+      </c>
+      <c r="C391">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B392">
+        <v>10990</v>
+      </c>
+      <c r="C392">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B393">
+        <v>12699</v>
+      </c>
+      <c r="C393">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B394">
+        <v>10843</v>
+      </c>
+      <c r="C394">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B395">
+        <v>9440.1</v>
+      </c>
+      <c r="C395">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B396">
+        <v>9537.7000000000007</v>
+      </c>
+      <c r="C396">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B397">
+        <v>10421</v>
+      </c>
+      <c r="C397">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B398">
+        <v>9632.2000000000007</v>
+      </c>
+      <c r="C398">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B399">
+        <v>9341.2000000000007</v>
+      </c>
+      <c r="C399">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B400">
+        <v>9595.1</v>
+      </c>
+      <c r="C400">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B401">
+        <v>11453</v>
+      </c>
+      <c r="C401">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B402">
+        <v>10606</v>
+      </c>
+      <c r="C402">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B403">
+        <v>8735.9</v>
+      </c>
+      <c r="C403">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B404">
+        <v>6542.8</v>
+      </c>
+      <c r="C404">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B405">
+        <v>5089.6000000000004</v>
+      </c>
+      <c r="C405">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B406">
+        <v>3809.2</v>
+      </c>
+      <c r="C406">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B407">
+        <v>4761.6000000000004</v>
+      </c>
+      <c r="C407">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B408">
+        <v>4615.5</v>
+      </c>
+      <c r="C408">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B409">
+        <v>6223.3</v>
+      </c>
+      <c r="C409">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B410">
+        <v>1600</v>
+      </c>
+      <c r="C410">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B411">
+        <v>2050.4</v>
+      </c>
+      <c r="C411">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B412">
+        <v>2007.1</v>
+      </c>
+      <c r="C412">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B413">
+        <v>3245.1</v>
+      </c>
+      <c r="C413">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B414">
+        <v>3591.5</v>
+      </c>
+      <c r="C414">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B415">
+        <v>5019.8999999999996</v>
+      </c>
+      <c r="C415">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B416">
+        <v>6005.2</v>
+      </c>
+      <c r="C416">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B417">
+        <v>6726.5</v>
+      </c>
+      <c r="C417">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B418">
+        <v>6288.8</v>
+      </c>
+      <c r="C418">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B419">
+        <v>4555.8999999999996</v>
+      </c>
+      <c r="C419">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B420">
+        <v>3064.3</v>
+      </c>
+      <c r="C420">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B421">
+        <v>3275.8</v>
+      </c>
+      <c r="C421">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B422">
+        <v>3339.3</v>
+      </c>
+      <c r="C422">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B423">
+        <v>3340.1</v>
+      </c>
+      <c r="C423">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B424">
+        <v>3202.1</v>
+      </c>
+      <c r="C424">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B425">
+        <v>3089.6</v>
+      </c>
+      <c r="C425">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B426">
+        <v>4043.6</v>
+      </c>
+      <c r="C426">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B427">
+        <v>7704</v>
+      </c>
+      <c r="C427">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B428">
+        <v>8782.7999999999993</v>
+      </c>
+      <c r="C428">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B429">
+        <v>9803.6</v>
+      </c>
+      <c r="C429">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B430">
+        <v>9517.7000000000007</v>
+      </c>
+      <c r="C430">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B431">
+        <v>11802</v>
+      </c>
+      <c r="C431">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B432">
+        <v>11075</v>
+      </c>
+      <c r="C432">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B433">
+        <v>11732</v>
+      </c>
+      <c r="C433">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B434">
+        <v>11004</v>
+      </c>
+      <c r="C434">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B435">
+        <v>9320.1</v>
+      </c>
+      <c r="C435">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B436">
+        <v>7344.7</v>
+      </c>
+      <c r="C436">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B437">
+        <v>5590.1</v>
+      </c>
+      <c r="C437">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B438">
+        <v>8966.2000000000007</v>
+      </c>
+      <c r="C438">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B439">
+        <v>11175</v>
+      </c>
+      <c r="C439">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B440">
+        <v>10782</v>
+      </c>
+      <c r="C440">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B441">
+        <v>12704</v>
+      </c>
+      <c r="C441">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B442">
+        <v>10829</v>
+      </c>
+      <c r="C442">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B443">
+        <v>9403.2000000000007</v>
+      </c>
+      <c r="C443">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B444">
+        <v>9466.9</v>
+      </c>
+      <c r="C444">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B445">
+        <v>10379</v>
+      </c>
+      <c r="C445">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B446">
+        <v>9503.2999999999993</v>
+      </c>
+      <c r="C446">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B447">
+        <v>9175.1</v>
+      </c>
+      <c r="C447">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B448">
+        <v>9553.6</v>
+      </c>
+      <c r="C448">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B449">
+        <v>11182</v>
+      </c>
+      <c r="C449">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B450">
+        <v>10274</v>
+      </c>
+      <c r="C450">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B451">
+        <v>8423.4</v>
+      </c>
+      <c r="C451">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B452">
+        <v>6340.2</v>
+      </c>
+      <c r="C452">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B453">
+        <v>5015.1000000000004</v>
+      </c>
+      <c r="C453">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B454">
+        <v>4222.2</v>
+      </c>
+      <c r="C454">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B455">
+        <v>6239.8</v>
+      </c>
+      <c r="C455">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B456">
+        <v>5766.8</v>
+      </c>
+      <c r="C456">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B457">
+        <v>1716.6</v>
+      </c>
+      <c r="C457">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B458">
+        <v>2141.4</v>
+      </c>
+      <c r="C458">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B459">
+        <v>2037.4</v>
+      </c>
+      <c r="C459">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B460">
+        <v>3206.1</v>
+      </c>
+      <c r="C460">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B461">
+        <v>3558.1</v>
+      </c>
+      <c r="C461">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B462">
+        <v>5117.6000000000004</v>
+      </c>
+      <c r="C462">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B463">
+        <v>6368.2</v>
+      </c>
+      <c r="C463">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B464">
+        <v>7163.5</v>
+      </c>
+      <c r="C464">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B465">
+        <v>6665.8</v>
+      </c>
+      <c r="C465">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B466">
+        <v>4941.8</v>
+      </c>
+      <c r="C466">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B467">
+        <v>3474.7</v>
+      </c>
+      <c r="C467">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B468">
+        <v>3604.2</v>
+      </c>
+      <c r="C468">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B469">
+        <v>3583.8</v>
+      </c>
+      <c r="C469">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B470">
+        <v>3602.2</v>
+      </c>
+      <c r="C470">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B471">
+        <v>3475.7</v>
+      </c>
+      <c r="C471">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B472">
+        <v>3363</v>
+      </c>
+      <c r="C472">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B473">
+        <v>4383.8999999999996</v>
+      </c>
+      <c r="C473">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B474">
+        <v>8307.4</v>
+      </c>
+      <c r="C474">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B475">
+        <v>9439</v>
+      </c>
+      <c r="C475">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B476">
+        <v>10493</v>
+      </c>
+      <c r="C476">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B477">
+        <v>10200</v>
+      </c>
+      <c r="C477">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B478">
+        <v>12531</v>
+      </c>
+      <c r="C478">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B479">
+        <v>11773</v>
+      </c>
+      <c r="C479">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B480">
+        <v>12401</v>
+      </c>
+      <c r="C480">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B481">
+        <v>11617</v>
+      </c>
+      <c r="C481">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B482">
+        <v>9874.5</v>
+      </c>
+      <c r="C482">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B483">
+        <v>7846.9</v>
+      </c>
+      <c r="C483">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B484">
+        <v>6096.8</v>
+      </c>
+      <c r="C484">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B485">
+        <v>9557</v>
+      </c>
+      <c r="C485">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B486">
+        <v>11832</v>
+      </c>
+      <c r="C486">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B487">
+        <v>11485</v>
+      </c>
+      <c r="C487">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B488">
+        <v>13615</v>
+      </c>
+      <c r="C488">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B489">
+        <v>11537</v>
+      </c>
+      <c r="C489">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B490">
+        <v>10104</v>
+      </c>
+      <c r="C490">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B491">
+        <v>10178</v>
+      </c>
+      <c r="C491">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B492">
+        <v>11081</v>
+      </c>
+      <c r="C492">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B493">
+        <v>10201</v>
+      </c>
+      <c r="C493">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B494">
+        <v>9897.5</v>
+      </c>
+      <c r="C494">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B495">
+        <v>10224</v>
+      </c>
+      <c r="C495">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B496">
+        <v>12865</v>
+      </c>
+      <c r="C496">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B497">
+        <v>11784</v>
+      </c>
+      <c r="C497">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B498">
+        <v>9597.5</v>
+      </c>
+      <c r="C498">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B499">
+        <v>7178.1</v>
+      </c>
+      <c r="C499">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B500">
+        <v>5363.4</v>
+      </c>
+      <c r="C500">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B501">
+        <v>4356.7</v>
+      </c>
+      <c r="C501">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B502">
+        <v>6657.9</v>
+      </c>
+      <c r="C502">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B503">
+        <v>1810.1</v>
+      </c>
+      <c r="C503">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B504">
+        <v>2230.9</v>
+      </c>
+      <c r="C504">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B505">
+        <v>2251.5</v>
+      </c>
+      <c r="C505">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="506" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B506">
+        <v>3517.9</v>
+      </c>
+      <c r="C506">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="507" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B507">
+        <v>3881.4</v>
+      </c>
+      <c r="C507">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="508" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B508">
+        <v>5057.8999999999996</v>
+      </c>
+      <c r="C508">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="509" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B509">
+        <v>5929.2</v>
+      </c>
+      <c r="C509">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="510" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B510">
+        <v>6616.7</v>
+      </c>
+      <c r="C510">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B511">
+        <v>6265.1</v>
+      </c>
+      <c r="C511">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="512" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B512">
+        <v>4750.7</v>
+      </c>
+      <c r="C512">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="513" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B513">
+        <v>3460.1</v>
+      </c>
+      <c r="C513">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="514" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B514">
+        <v>3584.7</v>
+      </c>
+      <c r="C514">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="515" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B515">
+        <v>3576.5</v>
+      </c>
+      <c r="C515">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="516" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B516">
+        <v>3581.5</v>
+      </c>
+      <c r="C516">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="517" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B517">
+        <v>3437.6</v>
+      </c>
+      <c r="C517">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="518" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B518">
+        <v>3322.9</v>
+      </c>
+      <c r="C518">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="519" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B519">
+        <v>4319.5</v>
+      </c>
+      <c r="C519">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="520" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B520">
+        <v>8364</v>
+      </c>
+      <c r="C520">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="521" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B521">
+        <v>9475.9</v>
+      </c>
+      <c r="C521">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="522" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B522">
+        <v>10443</v>
+      </c>
+      <c r="C522">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="523" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B523">
+        <v>10088</v>
+      </c>
+      <c r="C523">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="524" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B524">
+        <v>12285</v>
+      </c>
+      <c r="C524">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="525" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B525">
+        <v>11486</v>
+      </c>
+      <c r="C525">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="526" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B526">
+        <v>12077</v>
+      </c>
+      <c r="C526">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="527" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B527">
+        <v>11330</v>
+      </c>
+      <c r="C527">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="528" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B528">
+        <v>9584.1</v>
+      </c>
+      <c r="C528">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B529">
+        <v>7602.7</v>
+      </c>
+      <c r="C529">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B530">
+        <v>5928.5</v>
+      </c>
+      <c r="C530">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B531">
+        <v>9269.6</v>
+      </c>
+      <c r="C531">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B532">
+        <v>11795</v>
+      </c>
+      <c r="C532">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B533">
+        <v>11407</v>
+      </c>
+      <c r="C533">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B534">
+        <v>13658</v>
+      </c>
+      <c r="C534">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B535">
+        <v>11480</v>
+      </c>
+      <c r="C535">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="536" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B536">
+        <v>10056</v>
+      </c>
+      <c r="C536">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="537" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B537">
+        <v>9972.7999999999993</v>
+      </c>
+      <c r="C537">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="538" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B538">
+        <v>10872</v>
+      </c>
+      <c r="C538">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B539">
+        <v>10052</v>
+      </c>
+      <c r="C539">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="540" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B540">
+        <v>9799.9</v>
+      </c>
+      <c r="C540">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="541" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B541">
+        <v>10197</v>
+      </c>
+      <c r="C541">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="542" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B542">
+        <v>13320</v>
+      </c>
+      <c r="C542">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="543" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B543">
+        <v>12055</v>
+      </c>
+      <c r="C543">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="544" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B544">
+        <v>9759.1</v>
+      </c>
+      <c r="C544">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="545" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B545">
+        <v>7950.4</v>
+      </c>
+      <c r="C545">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="546" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B546">
+        <v>6360.9</v>
+      </c>
+      <c r="C546">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="547" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B547">
+        <v>6419.9</v>
+      </c>
+      <c r="C547">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="548" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B548">
+        <v>1725.5</v>
+      </c>
+      <c r="C548">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="549" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B549">
+        <v>2195.9</v>
+      </c>
+      <c r="C549">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="550" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B550">
+        <v>2250.6999999999998</v>
+      </c>
+      <c r="C550">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="551" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B551">
+        <v>3420.3</v>
+      </c>
+      <c r="C551">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="552" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B552">
+        <v>3875.6</v>
+      </c>
+      <c r="C552">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="553" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B553">
+        <v>5137</v>
+      </c>
+      <c r="C553">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="554" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B554">
+        <v>6079.3</v>
+      </c>
+      <c r="C554">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="555" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B555">
+        <v>6579.5</v>
+      </c>
+      <c r="C555">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="556" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B556">
+        <v>6078.1</v>
+      </c>
+      <c r="C556">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="557" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B557">
+        <v>4519.5</v>
+      </c>
+      <c r="C557">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="558" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B558">
+        <v>3193.3</v>
+      </c>
+      <c r="C558">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="559" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B559">
+        <v>3366.1</v>
+      </c>
+      <c r="C559">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="560" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B560">
+        <v>3433.7</v>
+      </c>
+      <c r="C560">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B561">
+        <v>3444</v>
+      </c>
+      <c r="C561">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B562">
+        <v>3326.8</v>
+      </c>
+      <c r="C562">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B563">
+        <v>3280.1</v>
+      </c>
+      <c r="C563">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="564" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B564">
+        <v>4322.3</v>
+      </c>
+      <c r="C564">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B565">
+        <v>8126.7</v>
+      </c>
+      <c r="C565">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B566">
+        <v>9261</v>
+      </c>
+      <c r="C566">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="567" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B567">
+        <v>10298</v>
+      </c>
+      <c r="C567">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B568">
+        <v>9999.7999999999993</v>
+      </c>
+      <c r="C568">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B569">
+        <v>12181</v>
+      </c>
+      <c r="C569">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B570">
+        <v>11381</v>
+      </c>
+      <c r="C570">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="571" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B571">
+        <v>11951</v>
+      </c>
+      <c r="C571">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="572" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B572">
+        <v>11159</v>
+      </c>
+      <c r="C572">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="573" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B573">
+        <v>9394</v>
+      </c>
+      <c r="C573">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="574" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B574">
+        <v>7393.2</v>
+      </c>
+      <c r="C574">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="575" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B575">
+        <v>5581.8</v>
+      </c>
+      <c r="C575">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="576" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B576">
+        <v>8897.7000000000007</v>
+      </c>
+      <c r="C576">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="577" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B577">
+        <v>11503</v>
+      </c>
+      <c r="C577">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="578" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B578">
+        <v>10590</v>
+      </c>
+      <c r="C578">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="579" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B579">
+        <v>12617</v>
+      </c>
+      <c r="C579">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="580" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B580">
+        <v>10752</v>
+      </c>
+      <c r="C580">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="581" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B581">
+        <v>8983.9</v>
+      </c>
+      <c r="C581">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="582" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B582">
+        <v>9334.5</v>
+      </c>
+      <c r="C582">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="583" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B583">
+        <v>12593</v>
+      </c>
+      <c r="C583">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="584" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B584">
+        <v>11680</v>
+      </c>
+      <c r="C584">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="585" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B585">
+        <v>11145</v>
+      </c>
+      <c r="C585">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="586" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B586">
+        <v>751.26</v>
+      </c>
+      <c r="C586">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="587" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B587">
+        <v>975.71</v>
+      </c>
+      <c r="C587">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="588" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B588">
+        <v>1000.8</v>
+      </c>
+      <c r="C588">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="589" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B589">
+        <v>1957</v>
+      </c>
+      <c r="C589">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="590" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B590">
+        <v>2311.9</v>
+      </c>
+      <c r="C590">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="591" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B591">
+        <v>3379.1</v>
+      </c>
+      <c r="C591">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="592" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B592">
+        <v>3997.5</v>
+      </c>
+      <c r="C592">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="593" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B593">
+        <v>4371.7</v>
+      </c>
+      <c r="C593">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="594" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B594">
+        <v>3983.8</v>
+      </c>
+      <c r="C594">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="595" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B595">
+        <v>2872.5</v>
+      </c>
+      <c r="C595">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="596" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B596">
+        <v>1648.3</v>
+      </c>
+      <c r="C596">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="597" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B597">
+        <v>2536.1999999999998</v>
+      </c>
+      <c r="C597">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="598" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B598">
+        <v>2694.1</v>
+      </c>
+      <c r="C598">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="599" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B599">
+        <v>2700.2</v>
+      </c>
+      <c r="C599">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="600" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B600">
+        <v>2607.4</v>
+      </c>
+      <c r="C600">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="601" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B601">
+        <v>2639.3</v>
+      </c>
+      <c r="C601">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="602" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B602">
+        <v>3720.7</v>
+      </c>
+      <c r="C602">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="603" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B603">
+        <v>7829.1</v>
+      </c>
+      <c r="C603">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="604" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B604">
+        <v>9014.7999999999993</v>
+      </c>
+      <c r="C604">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="605" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B605">
+        <v>9950.9</v>
+      </c>
+      <c r="C605">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="606" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B606">
+        <v>9511.2000000000007</v>
+      </c>
+      <c r="C606">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="607" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B607">
+        <v>11175</v>
+      </c>
+      <c r="C607">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="608" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B608">
+        <v>10271</v>
+      </c>
+      <c r="C608">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="609" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B609">
+        <v>10630</v>
+      </c>
+      <c r="C609">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="610" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B610">
+        <v>9904.2999999999993</v>
+      </c>
+      <c r="C610">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="611" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B611">
+        <v>8246.6</v>
+      </c>
+      <c r="C611">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="612" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B612">
+        <v>6469</v>
+      </c>
+      <c r="C612">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="613" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B613">
+        <v>4854.3</v>
+      </c>
+      <c r="C613">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="614" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B614">
+        <v>7903.5</v>
+      </c>
+      <c r="C614">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="615" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B615">
+        <v>10203</v>
+      </c>
+      <c r="C615">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="616" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B616">
+        <v>9246.7000000000007</v>
+      </c>
+      <c r="C616">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="617" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B617">
+        <v>10210</v>
+      </c>
+      <c r="C617">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="618" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B618">
+        <v>8498.2999999999993</v>
+      </c>
+      <c r="C618">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="619" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B619">
+        <v>7000.1</v>
+      </c>
+      <c r="C619">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="620" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B620">
+        <v>7387.1</v>
+      </c>
+      <c r="C620">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="621" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B621">
+        <v>10741</v>
+      </c>
+      <c r="C621">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="622" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B622">
+        <v>10464</v>
+      </c>
+      <c r="C622">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="623" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B623">
+        <v>917</v>
+      </c>
+      <c r="C623">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="624" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B624">
+        <v>976</v>
+      </c>
+      <c r="C624">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="625" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B625">
+        <v>919</v>
+      </c>
+      <c r="C625">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="626" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B626">
+        <v>1858</v>
+      </c>
+      <c r="C626">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="627" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B627">
+        <v>2312</v>
+      </c>
+      <c r="C627">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="628" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B628">
+        <v>3579</v>
+      </c>
+      <c r="C628">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="629" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B629">
+        <v>4479</v>
+      </c>
+      <c r="C629">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="630" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B630">
+        <v>5161</v>
+      </c>
+      <c r="C630">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="631" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B631">
+        <v>4896</v>
+      </c>
+      <c r="C631">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="632" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B632">
+        <v>3357</v>
+      </c>
+      <c r="C632">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="633" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B633">
+        <v>1952</v>
+      </c>
+      <c r="C633">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="634" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B634">
+        <v>2683</v>
+      </c>
+      <c r="C634">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="635" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B635">
+        <v>2748</v>
+      </c>
+      <c r="C635">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="636" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B636">
+        <v>2716</v>
+      </c>
+      <c r="C636">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="637" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B637">
+        <v>2668</v>
+      </c>
+      <c r="C637">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="638" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B638">
+        <v>2720</v>
+      </c>
+      <c r="C638">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="639" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B639">
+        <v>3888</v>
+      </c>
+      <c r="C639">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="640" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B640">
+        <v>8064</v>
+      </c>
+      <c r="C640">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="641" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B641">
+        <v>9229</v>
+      </c>
+      <c r="C641">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="642" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B642">
+        <v>10153</v>
+      </c>
+      <c r="C642">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="643" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B643">
+        <v>9685</v>
+      </c>
+      <c r="C643">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="644" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B644">
+        <v>11370</v>
+      </c>
+      <c r="C644">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="645" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B645">
+        <v>10440</v>
+      </c>
+      <c r="C645">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="646" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B646">
+        <v>10769</v>
+      </c>
+      <c r="C646">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="647" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B647">
+        <v>9991</v>
+      </c>
+      <c r="C647">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="648" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B648">
+        <v>8305</v>
+      </c>
+      <c r="C648">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="649" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B649">
+        <v>6497</v>
+      </c>
+      <c r="C649">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="650" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B650">
+        <v>4842</v>
+      </c>
+      <c r="C650">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="651" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B651">
+        <v>7800</v>
+      </c>
+      <c r="C651">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="652" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B652">
+        <v>9873</v>
+      </c>
+      <c r="C652">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="653" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B653">
+        <v>8622</v>
+      </c>
+      <c r="C653">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="654" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B654">
+        <v>8817</v>
+      </c>
+      <c r="C654">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="655" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B655">
+        <v>7147</v>
+      </c>
+      <c r="C655">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="656" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B656">
+        <v>5710</v>
+      </c>
+      <c r="C656">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="657" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B657">
+        <v>5961</v>
+      </c>
+      <c r="C657">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="658" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B658">
+        <v>7513</v>
+      </c>
+      <c r="C658">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="659" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B659">
+        <v>1037</v>
+      </c>
+      <c r="C659">
+        <v>1999</v>
+      </c>
+      <c r="D659">
+        <v>1998</v>
+      </c>
+      <c r="E659">
+        <v>1997</v>
+      </c>
+      <c r="I659" t="s">
+        <v>0</v>
+      </c>
+      <c r="J659" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B660">
+        <v>1227</v>
+      </c>
+      <c r="C660">
+        <v>1999</v>
+      </c>
+      <c r="E660">
+        <v>1800</v>
+      </c>
+      <c r="I660">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="661" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B661">
+        <v>1096</v>
+      </c>
+      <c r="C661">
+        <v>1999</v>
+      </c>
+      <c r="E661">
+        <v>2000</v>
+      </c>
+      <c r="I661">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="662" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B662">
+        <v>2095</v>
+      </c>
+      <c r="C662">
+        <v>1999</v>
+      </c>
+      <c r="E662">
+        <v>2900</v>
+      </c>
+      <c r="I662">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="663" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B663">
+        <v>2510</v>
+      </c>
+      <c r="C663">
+        <v>1999</v>
+      </c>
+      <c r="E663">
+        <v>4000</v>
+      </c>
+      <c r="I663">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="664" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B664">
+        <v>3810</v>
+      </c>
+      <c r="C664">
+        <v>1999</v>
+      </c>
+      <c r="E664">
+        <v>6400</v>
+      </c>
+      <c r="I664">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="665" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B665">
+        <v>5083</v>
+      </c>
+      <c r="C665">
+        <v>1999</v>
+      </c>
+      <c r="E665">
+        <v>8000</v>
+      </c>
+      <c r="I665">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="666" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B666">
+        <v>5813</v>
+      </c>
+      <c r="C666">
+        <v>1999</v>
+      </c>
+      <c r="E666">
+        <v>9000</v>
+      </c>
+      <c r="I666">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="667" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B667">
+        <v>5648</v>
+      </c>
+      <c r="C667">
+        <v>1999</v>
+      </c>
+      <c r="E667">
+        <v>10000</v>
+      </c>
+      <c r="I667">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="668" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B668">
+        <v>3922</v>
+      </c>
+      <c r="C668">
+        <v>1999</v>
+      </c>
+      <c r="E668">
+        <v>9900</v>
+      </c>
+      <c r="I668">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="669" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B669">
+        <v>2342</v>
+      </c>
+      <c r="C669">
+        <v>1999</v>
+      </c>
+      <c r="E669">
+        <v>9000</v>
+      </c>
+      <c r="I669">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="670" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B670">
+        <v>3014</v>
+      </c>
+      <c r="C670">
+        <v>1999</v>
+      </c>
+      <c r="E670">
+        <v>6400</v>
+      </c>
+      <c r="I670">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="671" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B671">
+        <v>3008</v>
+      </c>
+      <c r="C671">
+        <v>1999</v>
+      </c>
+      <c r="E671">
+        <v>6100</v>
+      </c>
+      <c r="I671">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="672" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B672">
+        <v>2894</v>
+      </c>
+      <c r="C672">
+        <v>1999</v>
+      </c>
+      <c r="E672">
+        <v>5400</v>
+      </c>
+      <c r="I672">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="673" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B673">
+        <v>2867</v>
+      </c>
+      <c r="C673">
+        <v>1999</v>
+      </c>
+      <c r="E673">
+        <v>5000</v>
+      </c>
+      <c r="I673">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="674" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B674">
+        <v>2933</v>
+      </c>
+      <c r="C674">
+        <v>1999</v>
+      </c>
+      <c r="D674">
+        <v>3243.6</v>
+      </c>
+      <c r="E674">
+        <v>4400</v>
+      </c>
+      <c r="I674">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="675" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B675">
+        <v>4294</v>
+      </c>
+      <c r="C675">
+        <v>1999</v>
+      </c>
+      <c r="D675">
+        <v>3183.4</v>
+      </c>
+      <c r="E675">
+        <v>4000</v>
+      </c>
+      <c r="I675">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="676" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B676">
+        <v>8569</v>
+      </c>
+      <c r="C676">
+        <v>1999</v>
+      </c>
+      <c r="D676">
+        <v>4617.8999999999996</v>
+      </c>
+      <c r="E676">
+        <v>4000</v>
+      </c>
+      <c r="I676">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="677" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B677">
+        <v>9778</v>
+      </c>
+      <c r="C677">
+        <v>1999</v>
+      </c>
+      <c r="D677">
+        <v>9189.9</v>
+      </c>
+      <c r="E677">
+        <v>7500</v>
+      </c>
+      <c r="I677">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="678" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B678">
+        <v>10705</v>
+      </c>
+      <c r="C678">
+        <v>1999</v>
+      </c>
+      <c r="D678">
+        <v>10524</v>
+      </c>
+      <c r="E678">
+        <v>8400</v>
+      </c>
+      <c r="I678">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="679" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B679">
+        <v>10179</v>
+      </c>
+      <c r="C679">
+        <v>1999</v>
+      </c>
+      <c r="D679">
+        <v>11555</v>
+      </c>
+      <c r="E679">
+        <v>8500</v>
+      </c>
+      <c r="I679">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="680" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B680">
+        <v>11919</v>
+      </c>
+      <c r="C680">
+        <v>1999</v>
+      </c>
+      <c r="D680">
+        <v>11028</v>
+      </c>
+      <c r="E680">
+        <v>8400</v>
+      </c>
+      <c r="I680">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="681" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B681">
+        <v>10913</v>
+      </c>
+      <c r="C681">
+        <v>1999</v>
+      </c>
+      <c r="D681">
+        <v>12853</v>
+      </c>
+      <c r="E681">
+        <v>9400</v>
+      </c>
+      <c r="I681">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="682" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B682">
+        <v>11116</v>
+      </c>
+      <c r="C682">
+        <v>1999</v>
+      </c>
+      <c r="D682">
+        <v>11796</v>
+      </c>
+      <c r="E682">
+        <v>8700</v>
+      </c>
+      <c r="I682">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="683" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B683">
+        <v>10274</v>
+      </c>
+      <c r="C683">
+        <v>1999</v>
+      </c>
+      <c r="D683">
+        <v>11952</v>
+      </c>
+      <c r="E683">
+        <v>8800</v>
+      </c>
+      <c r="I683">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="684" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B684">
+        <v>8546</v>
+      </c>
+      <c r="C684">
+        <v>1999</v>
+      </c>
+      <c r="D684">
+        <v>11020</v>
+      </c>
+      <c r="E684">
+        <v>8500</v>
+      </c>
+      <c r="I684">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="685" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B685">
+        <v>6659</v>
+      </c>
+      <c r="C685">
+        <v>1999</v>
+      </c>
+      <c r="D685">
+        <v>9210</v>
+      </c>
+      <c r="E685">
+        <v>7900</v>
+      </c>
+      <c r="I685">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="686" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B686">
+        <v>5180</v>
+      </c>
+      <c r="C686">
+        <v>1999</v>
+      </c>
+      <c r="D686">
+        <v>7239.6</v>
+      </c>
+    </row>
+    <row r="687" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B687">
+        <v>8294</v>
+      </c>
+      <c r="C687">
+        <v>1999</v>
+      </c>
+      <c r="D687">
+        <v>5690.2</v>
+      </c>
+    </row>
+    <row r="688" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B688">
+        <v>10279</v>
+      </c>
+      <c r="C688">
+        <v>1999</v>
+      </c>
+      <c r="D688">
+        <v>9464.5</v>
+      </c>
+    </row>
+    <row r="689" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B689">
+        <v>8917</v>
+      </c>
+      <c r="C689">
+        <v>1999</v>
+      </c>
+      <c r="D689">
+        <v>12086</v>
+      </c>
+    </row>
+    <row r="690" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B690">
+        <v>8680</v>
+      </c>
+      <c r="C690">
+        <v>1999</v>
+      </c>
+      <c r="D690">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="691" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B691">
+        <v>6811</v>
+      </c>
+      <c r="C691">
+        <v>1999</v>
+      </c>
+      <c r="D691">
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="692" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B692">
+        <v>5307</v>
+      </c>
+      <c r="C692">
+        <v>1999</v>
+      </c>
+      <c r="D692">
+        <v>8141.6</v>
+      </c>
+    </row>
+    <row r="693" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B693">
+        <v>5133</v>
+      </c>
+      <c r="C693">
+        <v>1999</v>
+      </c>
+      <c r="D693">
+        <v>6630.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:O55"/>
     </sheetView>
   </sheetViews>
@@ -7636,12 +16695,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="S1" sqref="A1:S55"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/doc/data/History.xlsx
+++ b/doc/data/History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/_mymods/ebswp/doc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2242F1-D5FF-974F-9902-40562951BC22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48488A53-94E9-DA45-90C7-58E6542D2703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-1340" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="14">
   <si>
     <t>1990 VPA</t>
   </si>
@@ -77,6 +80,9 @@
   <si>
     <t>Assessment year</t>
   </si>
+  <si>
+    <t>age_3_plus_biom</t>
+  </si>
 </sst>
 </file>
 
@@ -111,8 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5175,15 +5183,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0BA8D6-8FA9-E047-BBAE-CBF62DF575FE}">
-  <dimension ref="A2:S693"/>
+  <dimension ref="A1:Z693"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:S58"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Z57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W1">
+        <v>1449</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>1866.6</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>412.87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5197,48 +5219,63 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="F2:H2" si="0">H2+1</f>
+        <v>2019</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2" si="0">I2+1</f>
         <v>2018</v>
       </c>
-      <c r="H2">
-        <f>I2+1</f>
+      <c r="I2">
+        <f>J2+1</f>
         <v>2017</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2016</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2015</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2014</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2013</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2012</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2011</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2010</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2009</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2008</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2007</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2006</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W2">
+        <v>1450</v>
+      </c>
+      <c r="X2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>2270.8000000000002</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>456.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1964</v>
       </c>
@@ -5252,46 +5289,61 @@
         <v>1964</v>
       </c>
       <c r="G3">
+        <v>1866.6</v>
+      </c>
+      <c r="H3">
         <v>1744.6</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1779.9</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1834.3</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1869</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1622.2</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1602</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1608.1</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1601.5</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1583.6</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1564.3</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1600</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1716.6</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1810.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W3">
+        <v>1451</v>
+      </c>
+      <c r="X3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>2433</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>482.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1965</v>
       </c>
@@ -5305,46 +5357,61 @@
         <v>1965</v>
       </c>
       <c r="G4">
+        <v>2270.8000000000002</v>
+      </c>
+      <c r="H4">
         <v>2124.8000000000002</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2165.9</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2229.8000000000002</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2324</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2076.6</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2051.4</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2059.1999999999998</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2050.3000000000002</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2000.5</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2007.8</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2050.4</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2141.4</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2230.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W4">
+        <v>1452</v>
+      </c>
+      <c r="X4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>3695.7</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>630.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1966</v>
       </c>
@@ -5358,46 +5425,61 @@
         <v>1966</v>
       </c>
       <c r="G5">
+        <v>2433</v>
+      </c>
+      <c r="H5">
         <v>2277.5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2326.5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2404</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2563</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2186.3000000000002</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2149.6</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2157.4</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2158.8000000000002</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1935.9</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1947.4</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2007.1</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2037.4</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2251.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W5">
+        <v>1453</v>
+      </c>
+      <c r="X5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>4217.2</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>721.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1967</v>
       </c>
@@ -5411,46 +5493,61 @@
         <v>1967</v>
       </c>
       <c r="G6">
+        <v>3695.7</v>
+      </c>
+      <c r="H6">
         <v>3504</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3566.1</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3667.2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3888</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>3397.3</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3344</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>3352.9</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>3364.8</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>3130</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>3148.8</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3245.1</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>3206.1</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>3517.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W6">
+        <v>1454</v>
+      </c>
+      <c r="X6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>5316.1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>837.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1968</v>
       </c>
@@ -5464,46 +5561,61 @@
         <v>1968</v>
       </c>
       <c r="G7">
+        <v>4217.2</v>
+      </c>
+      <c r="H7">
         <v>4011.9</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4082</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4198.7</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4495</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3870.9</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3800</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>3808.5</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3838.1</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>3475.5</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3510.3</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3591.5</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3558.1</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>3881.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W7">
+        <v>1455</v>
+      </c>
+      <c r="X7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>5957.2</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>879.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1969</v>
       </c>
@@ -5517,46 +5629,61 @@
         <v>1969</v>
       </c>
       <c r="G8">
+        <v>5316.1</v>
+      </c>
+      <c r="H8">
         <v>5105.1000000000004</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5174.5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5294.7</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5690</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5220.3999999999996</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>5145.2</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>5154.3</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>5187.1000000000004</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>4867.7</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>5006.8999999999996</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>5019.8999999999996</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>5117.6000000000004</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>5057.8999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W8">
+        <v>1456</v>
+      </c>
+      <c r="X8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>6390</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>852.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1970</v>
       </c>
@@ -5570,46 +5697,61 @@
         <v>1970</v>
       </c>
       <c r="G9">
+        <v>5957.2</v>
+      </c>
+      <c r="H9">
         <v>5757.1</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5820.8</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>5936.4</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>6424</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>6252.8</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>6178.6</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>6187.9</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>6221.4</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>5962.2</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>6158.5</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>6005.2</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>6368.2</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>5929.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W9">
+        <v>1457</v>
+      </c>
+      <c r="X9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>6063.3</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>759.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1971</v>
       </c>
@@ -5623,46 +5765,61 @@
         <v>1971</v>
       </c>
       <c r="G10">
+        <v>6390</v>
+      </c>
+      <c r="H10">
         <v>6209.9</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>6260.5</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>6360.1</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>6858</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>6945.8</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>6884.2</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>6893.7</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>6917.7</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>6774.6</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>6949.4</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>6726.5</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>7163.5</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>6616.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W10">
+        <v>1458</v>
+      </c>
+      <c r="X10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>4880.6000000000004</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>669.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1972</v>
       </c>
@@ -5676,46 +5833,61 @@
         <v>1972</v>
       </c>
       <c r="G11">
+        <v>6063.3</v>
+      </c>
+      <c r="H11">
         <v>5902.1</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5940.8</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6024.9</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>6431</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>6353</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>6299</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>6308.1</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>6328.9</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>6268.2</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>6444.4</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>6288.8</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>6665.8</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>6265.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W11">
+        <v>1459</v>
+      </c>
+      <c r="X11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>3619.3</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>585.05999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1973</v>
       </c>
@@ -5729,46 +5901,61 @@
         <v>1973</v>
       </c>
       <c r="G12">
+        <v>4880.6000000000004</v>
+      </c>
+      <c r="H12">
         <v>4729.8</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4765.3999999999996</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4845.5</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>5161</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4748.6000000000004</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4692</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>4700.2</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>4727.6000000000004</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>4538.8</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>4695.5</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>4555.8999999999996</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>4941.8</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>4750.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W12">
+        <v>1460</v>
+      </c>
+      <c r="X12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>3740.6</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0.12507886435331231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1974</v>
       </c>
@@ -5782,46 +5969,61 @@
         <v>1974</v>
       </c>
       <c r="G13">
+        <v>3619.3</v>
+      </c>
+      <c r="H13">
         <v>3474.9</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3510.2</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3589.9</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3846</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3348.1</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3291.1</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>3298.4</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3329.3</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>3077.6</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>3195.5</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>3064.3</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3474.7</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>3460.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W13">
+        <v>1461</v>
+      </c>
+      <c r="X13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>3708.2</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0.1050374844938245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1975</v>
       </c>
@@ -5835,46 +6037,61 @@
         <v>1975</v>
       </c>
       <c r="G14">
+        <v>3740.6</v>
+      </c>
+      <c r="H14">
         <v>3585.1</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3611.7</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3679.3</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3868</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3554.2</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3515.5</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3523</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>3533.4</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3360.1</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3383.7</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3275.8</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3604.2</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3584.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W14">
+        <v>1462</v>
+      </c>
+      <c r="X14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>3690.5</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>9.2895271643408744E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1976</v>
       </c>
@@ -5888,46 +6105,61 @@
         <v>1976</v>
       </c>
       <c r="G15">
+        <v>3708.2</v>
+      </c>
+      <c r="H15">
         <v>3515.6</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>3538.1</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3608.7</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3872</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3609.4</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3577.9</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>3587</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>3580.3</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3454.7</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>3430.9</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3339.3</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3583.8</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3576.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W15">
+        <v>1463</v>
+      </c>
+      <c r="X15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>3607.3</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>8.8675740858814064E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1977</v>
       </c>
@@ -5941,46 +6173,61 @@
         <v>1977</v>
       </c>
       <c r="G16">
+        <v>3690.5</v>
+      </c>
+      <c r="H16">
         <v>3426.2</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3446.6</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3535.7</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3939</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3642.6</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3612.5</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>3623.7</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>3598.2</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>3493.7</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3456.5</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3340.1</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3602.2</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>3581.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W16">
+        <v>1464</v>
+      </c>
+      <c r="X16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>3595.4</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>8.4193691939700721E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1978</v>
       </c>
@@ -5994,46 +6241,61 @@
         <v>1978</v>
       </c>
       <c r="G17">
+        <v>3607.3</v>
+      </c>
+      <c r="H17">
         <v>3250.7</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3273.7</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3375.6</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>3888</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3556.6</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>3524</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>3537.1</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>3496.6</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>3382.9</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>3340</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3202.1</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>3475.7</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>3437.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W17">
+        <v>1465</v>
+      </c>
+      <c r="X17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>4578.3</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>6.9567306642203439E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1979</v>
       </c>
@@ -6047,46 +6309,61 @@
         <v>1979</v>
       </c>
       <c r="G18">
+        <v>3595.4</v>
+      </c>
+      <c r="H18">
         <v>3087</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3116.1</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>3239.2</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>3859</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>3426.3</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>3386.9</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>3402.6</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>3342.5</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>3259.4</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>3211.9</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>3089.6</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>3363</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>3322.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W18">
+        <v>1466</v>
+      </c>
+      <c r="X18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>8451.1</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>4.972488788441741E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1980</v>
       </c>
@@ -6100,46 +6377,61 @@
         <v>1980</v>
       </c>
       <c r="G19">
+        <v>4578.3</v>
+      </c>
+      <c r="H19">
         <v>3856.9</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>3896.4</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>4068.6</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>4887</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>4372.1000000000004</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>4307.3999999999996</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>4332.6000000000004</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>4229.6000000000004</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>4190.6000000000004</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>4123.8</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>4043.6</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>4383.8999999999996</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>4319.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W19">
+        <v>1467</v>
+      </c>
+      <c r="X19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>9569.2999999999993</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>4.8506160325206653E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1981</v>
       </c>
@@ -6153,46 +6445,61 @@
         <v>1981</v>
       </c>
       <c r="G20">
+        <v>8451.1</v>
+      </c>
+      <c r="H20">
         <v>7314.5</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>7453.4</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>7813.5</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>9054</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>8527.7000000000007</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>8320.7999999999993</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>8363.5</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>8159.6</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>8166.2</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>8031</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>7704</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>8307.4</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>8364</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W20">
+        <v>1468</v>
+      </c>
+      <c r="X20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>10832</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>4.5632385524372231E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1982</v>
       </c>
@@ -6206,46 +6513,61 @@
         <v>1982</v>
       </c>
       <c r="G21">
+        <v>9569.2999999999993</v>
+      </c>
+      <c r="H21">
         <v>8448.2000000000007</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>8645.2000000000007</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>9056.6</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>10289</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>9766.5</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>9496.9</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>9548.7999999999993</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>9313.2999999999993</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>9321.1</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>9164.5</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>8782.7999999999993</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>9439</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>9475.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W21">
+        <v>1469</v>
+      </c>
+      <c r="X21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>10645</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>4.5229685298262094E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1983</v>
       </c>
@@ -6259,46 +6581,61 @@
         <v>1983</v>
       </c>
       <c r="G22">
+        <v>10832</v>
+      </c>
+      <c r="H22">
         <v>9556.9</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>9849.5</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>10240</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>11383</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>10911</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>10560</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>10621</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>10340</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>10345</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>10168</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>9803.6</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>10493</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>10443</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W22">
+        <v>1470</v>
+      </c>
+      <c r="X22" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>12592</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>3.6784466327827191E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1984</v>
       </c>
@@ -6312,46 +6649,61 @@
         <v>1984</v>
       </c>
       <c r="G23">
+        <v>10645</v>
+      </c>
+      <c r="H23">
         <v>9428</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>9731.7000000000007</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>10033</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>11040</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>10601</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>10239</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>10300</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>10031</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>10029</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>9856.5</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>9517.7000000000007</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>10200</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>10088</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W23">
+        <v>1471</v>
+      </c>
+      <c r="X23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>11790</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>3.5723494486853268E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1985</v>
       </c>
@@ -6365,46 +6717,61 @@
         <v>1985</v>
       </c>
       <c r="G24">
+        <v>12592</v>
+      </c>
+      <c r="H24">
         <v>11615</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>11887</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>12237</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>12951</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>12838</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>12409</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>12478</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>12186</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>12213</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>12027</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>11802</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>12531</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>12285</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W24">
+        <v>1472</v>
+      </c>
+      <c r="X24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>12143</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>2.957424030305526E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1986</v>
       </c>
@@ -6418,46 +6785,61 @@
         <v>1986</v>
       </c>
       <c r="G25">
+        <v>11790</v>
+      </c>
+      <c r="H25">
         <v>11039</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>11278</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>11531</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>12019</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>12036</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>11621</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>11685</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>11426</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>11440</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>11269</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>11075</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>11773</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>11486</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W25">
+        <v>1473</v>
+      </c>
+      <c r="X25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>11245</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>2.7851489550911514E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1987</v>
       </c>
@@ -6471,46 +6853,61 @@
         <v>1987</v>
       </c>
       <c r="G26">
+        <v>12143</v>
+      </c>
+      <c r="H26">
         <v>11734</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>11922</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>12143</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>12334</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>12615</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>12243</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>12308</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>12063</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>12080</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>11915</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>11732</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>12401</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>12077</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W26">
+        <v>1474</v>
+      </c>
+      <c r="X26" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>9370.7999999999993</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>2.9092500106714478E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1988</v>
       </c>
@@ -6524,46 +6921,61 @@
         <v>1988</v>
       </c>
       <c r="G27">
+        <v>11245</v>
+      </c>
+      <c r="H27">
         <v>11125</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>11291</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>11497</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>11536</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>11906</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>11583</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>11642</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>11424</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>11372</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>11227</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>11004</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>11617</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>11330</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W27">
+        <v>1475</v>
+      </c>
+      <c r="X27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>7431.2</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>3.1568252772096031E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1989</v>
       </c>
@@ -6577,46 +6989,61 @@
         <v>1989</v>
       </c>
       <c r="G28">
+        <v>9370.7999999999993</v>
+      </c>
+      <c r="H28">
         <v>9422.7999999999993</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>9568.5</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>9755.5</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>9700</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>10128</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>9860.9</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>9912.7000000000007</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>9723.9</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>9644.2999999999993</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>9520.6</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>9320.1</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>9874.5</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>9584.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W28">
+        <v>1476</v>
+      </c>
+      <c r="X28" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>5841.7</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>3.452077306263588E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1990</v>
       </c>
@@ -6630,46 +7057,61 @@
         <v>1990</v>
       </c>
       <c r="G29">
+        <v>7431.2</v>
+      </c>
+      <c r="H29">
         <v>7536.9</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>7671.3</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>7812.1</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>7701</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>8101.9</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>7891.2</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>7935.9</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>7764.1</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>7657.5</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>7558.3</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>7344.7</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>7846.9</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>7602.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W29">
+        <v>1477</v>
+      </c>
+      <c r="X29" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>9286.4</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>2.7936552377670575E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1991</v>
       </c>
@@ -6683,46 +7125,61 @@
         <v>1991</v>
       </c>
       <c r="G30">
+        <v>5841.7</v>
+      </c>
+      <c r="H30">
         <v>5920.3</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>6054.5</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>6183.5</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>6063</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>6331.4</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>6170.8</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>6209.3</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>6048.8</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>5889.5</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>5811.2</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>5590.1</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>6096.8</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>5928.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W30">
+        <v>1478</v>
+      </c>
+      <c r="X30" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>11599</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>2.8078282610569879E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1992</v>
       </c>
@@ -6736,46 +7193,61 @@
         <v>1992</v>
       </c>
       <c r="G31">
+        <v>9286.4</v>
+      </c>
+      <c r="H31">
         <v>9065.2000000000007</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>9276.2999999999993</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>9476.6</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>9472</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>9704.5</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>9561.7000000000007</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>9601.7999999999993</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>9411</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>9292.2000000000007</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>9211</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>8966.2000000000007</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>9557</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>9269.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W31">
+        <v>1479</v>
+      </c>
+      <c r="X31" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>11342</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>2.8994004584729328E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1993</v>
       </c>
@@ -6789,46 +7261,61 @@
         <v>1993</v>
       </c>
       <c r="G32">
+        <v>11599</v>
+      </c>
+      <c r="H32">
         <v>11181</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>11427</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>11627</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>11712</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>11840</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>11712</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>11754</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>11543</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>11466</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>11388</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>11175</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>11832</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>11795</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W32">
+        <v>1480</v>
+      </c>
+      <c r="X32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>12926</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>2.768219093300325E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1994</v>
       </c>
@@ -6842,46 +7329,61 @@
         <v>1994</v>
       </c>
       <c r="G33">
+        <v>11342</v>
+      </c>
+      <c r="H33">
         <v>10957</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>11188</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>11313</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>11418</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>11402</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>11306</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>11341</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>11146</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>11050</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>10990</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>10782</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>11485</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>11407</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W33">
+        <v>1481</v>
+      </c>
+      <c r="X33" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>11292</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>2.8900106269925608E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1995</v>
       </c>
@@ -6895,46 +7397,61 @@
         <v>1995</v>
       </c>
       <c r="G34">
+        <v>12926</v>
+      </c>
+      <c r="H34">
         <v>12508</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>12757</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>13000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>13177</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>13135</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>13074</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>13109</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>12883</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>12748</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>12699</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>12704</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>13615</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>13658</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W34">
+        <v>1482</v>
+      </c>
+      <c r="X34" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>10074</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>3.0266031367877703E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1996</v>
       </c>
@@ -6948,46 +7465,61 @@
         <v>1996</v>
       </c>
       <c r="G35">
+        <v>11292</v>
+      </c>
+      <c r="H35">
         <v>10751</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>10979</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>11239</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>11358</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>11235</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>11198</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>11229</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>11019</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>10874</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>10843</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>10829</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>11537</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>11480</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W35">
+        <v>1483</v>
+      </c>
+      <c r="X35" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>9738.4</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>2.9664010515074345E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1997</v>
       </c>
@@ -7001,46 +7533,61 @@
         <v>1997</v>
       </c>
       <c r="G36">
+        <v>10074</v>
+      </c>
+      <c r="H36">
         <v>9395.2000000000007</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>9603.7000000000007</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>9837.2000000000007</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>9940</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>9816.4</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>9801.2000000000007</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>9828.1</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>9626.5</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>9457.1</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>9440.1</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>9403.2000000000007</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>10104</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>10056</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W36">
+        <v>1484</v>
+      </c>
+      <c r="X36" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>10673</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>2.7438395952403261E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1998</v>
       </c>
@@ -7054,46 +7601,61 @@
         <v>1998</v>
       </c>
       <c r="G37">
+        <v>9738.4</v>
+      </c>
+      <c r="H37">
         <v>9422.4</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>9609.6</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>9908.6</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>9990</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>9906.7999999999993</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>9902.7000000000007</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>9929.2999999999993</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>9721.7999999999993</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>9555.5</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>9537.7000000000007</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>9466.9</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>10178</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>9972.7999999999993</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W37">
+        <v>1485</v>
+      </c>
+      <c r="X37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>9821.6</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>2.7661480817789363E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1999</v>
       </c>
@@ -7107,46 +7669,61 @@
         <v>1999</v>
       </c>
       <c r="G38">
+        <v>10673</v>
+      </c>
+      <c r="H38">
         <v>10390</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>10561</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>10751</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>10853</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>10799</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>10791</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>10819</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>10607</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>10482</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>10421</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>10379</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>11081</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>10872</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W38">
+        <v>1486</v>
+      </c>
+      <c r="X38" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>9559.6</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>2.8313946190217164E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2000</v>
       </c>
@@ -7160,46 +7737,61 @@
         <v>2000</v>
       </c>
       <c r="G39">
+        <v>9821.6</v>
+      </c>
+      <c r="H39">
         <v>9582.5</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>9735.7000000000007</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>9955.2999999999993</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>10068</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>10031</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>10020</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>10044</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>9840.7000000000007</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>9721.7999999999993</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>9632.2000000000007</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>9503.2999999999993</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>10201</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>10052</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W39">
+        <v>1487</v>
+      </c>
+      <c r="X39" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>9877.5</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>2.7297393065046822E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2001</v>
       </c>
@@ -7213,46 +7805,61 @@
         <v>2001</v>
       </c>
       <c r="G40">
+        <v>9559.6</v>
+      </c>
+      <c r="H40">
         <v>9335.2999999999993</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>9479.4</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>9702.1</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>9854</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>9818.9</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>9802.5</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>9829.9</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>9615.7000000000007</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>9481.2999999999993</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>9341.2000000000007</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>9175.1</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>9897.5</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>9799.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W40">
+        <v>1488</v>
+      </c>
+      <c r="X40" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>11816</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>2.4682633716993904E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2002</v>
       </c>
@@ -7266,46 +7873,61 @@
         <v>2002</v>
       </c>
       <c r="G41">
+        <v>9877.5</v>
+      </c>
+      <c r="H41">
         <v>9698.7999999999993</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>9811.1</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>10025</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>10276</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>10221</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>10182</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>10230</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>9987.6</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>9818.1</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>9595.1</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>9553.6</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>10224</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>10197</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W41">
+        <v>1489</v>
+      </c>
+      <c r="X41" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>11121</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>2.4348529808470458E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2003</v>
       </c>
@@ -7319,46 +7941,61 @@
         <v>2003</v>
       </c>
       <c r="G42">
+        <v>11816</v>
+      </c>
+      <c r="H42">
         <v>11657</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>11750</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>12080</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>12365</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>12278</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>12211</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>12269</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>11974</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>11780</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>11453</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>11182</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>12865</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>13320</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W42">
+        <v>1490</v>
+      </c>
+      <c r="X42" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>9302.2999999999993</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>2.5373294776560636E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2004</v>
       </c>
@@ -7372,46 +8009,61 @@
         <v>2004</v>
       </c>
       <c r="G43">
+        <v>11121</v>
+      </c>
+      <c r="H43">
         <v>10999</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>11073</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>11401</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>11591</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>11493</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>11416</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>11491</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>11178</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>10952</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>10606</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>10274</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>11784</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>12055</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W43">
+        <v>1491</v>
+      </c>
+      <c r="X43" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>7135.9</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>2.7762440617161117E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2005</v>
       </c>
@@ -7425,46 +8077,61 @@
         <v>2005</v>
       </c>
       <c r="G44">
+        <v>9302.2999999999993</v>
+      </c>
+      <c r="H44">
         <v>9197.4</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>9272.2000000000007</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>9598.7999999999993</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>9705</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>9601.9</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>9521.5</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>9608</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>9298.6</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>9056.9</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>8735.9</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>8423.4</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>9597.5</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>9759.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W44">
+        <v>1492</v>
+      </c>
+      <c r="X44" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>5782.5</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>3.1375702550799828E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2006</v>
       </c>
@@ -7478,46 +8145,61 @@
         <v>2006</v>
       </c>
       <c r="G45">
+        <v>7135.9</v>
+      </c>
+      <c r="H45">
         <v>7035.7</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>7110</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>7390.6</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>7446</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>7343.1</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>7261.9</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>7348.7</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>7059.8</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>6816.8</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>6542.8</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>6340.2</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>7178.1</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>7950.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W45">
+        <v>1493</v>
+      </c>
+      <c r="X45" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>4733</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>3.3898161842383263E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2007</v>
       </c>
@@ -7531,46 +8213,61 @@
         <v>2007</v>
       </c>
       <c r="G46">
+        <v>5782.5</v>
+      </c>
+      <c r="H46">
         <v>5683.6</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>5762.8</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>6046.5</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>6045</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>5932.6</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>5840</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>5953.8</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>5633</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>5352.1</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>5089.6000000000004</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>5015.1000000000004</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>5363.4</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>6360.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W46">
+        <v>1494</v>
+      </c>
+      <c r="X46" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>5941.1</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>3.2887849051522443E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2008</v>
       </c>
@@ -7584,43 +8281,58 @@
         <v>2008</v>
       </c>
       <c r="G47">
+        <v>4733</v>
+      </c>
+      <c r="H47">
         <v>4651.1000000000004</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>4726.3</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>4945.8</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>4849</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>4721.6000000000004</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>4607.2</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>4724.2</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>4392.8</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>4069.3</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>3809.2</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>4222.2</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>4356.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W47">
+        <v>1495</v>
+      </c>
+      <c r="X47" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>6356.3</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>3.512578072148892E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2009</v>
       </c>
@@ -7634,40 +8346,55 @@
         <v>2009</v>
       </c>
       <c r="G48">
+        <v>5941.1</v>
+      </c>
+      <c r="H48">
         <v>5837.7</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>5943.4</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>6374.1</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>6331</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>6068.8</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>5879.7</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>6069.2</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>6172</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>5903.2</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>4761.6000000000004</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>6239.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="W48">
+        <v>1496</v>
+      </c>
+      <c r="X48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>9176.7000000000007</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>3.3856397179814091E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2010</v>
       </c>
@@ -7681,37 +8408,52 @@
         <v>2010</v>
       </c>
       <c r="G49">
+        <v>6356.3</v>
+      </c>
+      <c r="H49">
         <v>6185.8</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>6327.5</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>6657.5</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>6680</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>5936.8</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>5622.3</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>5768.9</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>6094.7</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>6168</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>4615.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="W49">
+        <v>1497</v>
+      </c>
+      <c r="X49" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>9248.2000000000007</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>3.6589822884453185E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2011</v>
       </c>
@@ -7725,34 +8467,49 @@
         <v>2011</v>
       </c>
       <c r="G50">
+        <v>9176.7000000000007</v>
+      </c>
+      <c r="H50">
         <v>8788</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>9107.2000000000007</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>9637.7999999999993</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>10053</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>8895.2999999999993</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>7927.5</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>7780.8</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>7823.2</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>9050</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="W50">
+        <v>1498</v>
+      </c>
+      <c r="X50" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>9225.4</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>4.1104992737442281E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2012</v>
       </c>
@@ -7766,31 +8523,46 @@
         <v>2012</v>
       </c>
       <c r="G51">
+        <v>9248.2000000000007</v>
+      </c>
+      <c r="H51">
         <v>8722.5</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>9051.2999999999993</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>9626.7999999999993</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>10164</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>8822.7000000000007</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>7853</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>7866.9</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>8340.7000000000007</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="W51">
+        <v>1499</v>
+      </c>
+      <c r="X51" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>8624.9</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>4.6830687892033533E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2013</v>
       </c>
@@ -7804,28 +8576,43 @@
         <v>2013</v>
       </c>
       <c r="G52">
+        <v>9225.4</v>
+      </c>
+      <c r="H52">
         <v>8547.6</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>8873.6</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>9504.4</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>10337</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>9540.7999999999993</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>8261</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>8138.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="W52">
+        <v>1500</v>
+      </c>
+      <c r="X52" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>11801</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>5.6150326243538683E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2014</v>
       </c>
@@ -7839,25 +8626,40 @@
         <v>2014</v>
       </c>
       <c r="G53">
+        <v>8624.9</v>
+      </c>
+      <c r="H53">
         <v>7855.2</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>8143.2</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>8947.7999999999993</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>9805</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>8960.4</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>8045.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="W53">
+        <v>1501</v>
+      </c>
+      <c r="X53" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>14558</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>6.9851627970875116E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2015</v>
       </c>
@@ -7871,22 +8673,37 @@
         <v>2015</v>
       </c>
       <c r="G54">
+        <v>11801</v>
+      </c>
+      <c r="H54">
         <v>11345</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>11913</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>12407</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>10970</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>9203.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="W54">
+        <v>1502</v>
+      </c>
+      <c r="X54" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>12963</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>7.8978631489624307E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2016</v>
       </c>
@@ -7900,19 +8717,34 @@
         <v>2016</v>
       </c>
       <c r="G55">
+        <v>14558</v>
+      </c>
+      <c r="H55">
         <v>13293</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>13549</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>13495</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>11292</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="W55">
+        <v>1503</v>
+      </c>
+      <c r="X55" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>10484</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>8.8322205265165973E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2017</v>
       </c>
@@ -7926,18 +8758,33 @@
         <v>2017</v>
       </c>
       <c r="G56">
+        <v>12963</v>
+      </c>
+      <c r="H56">
         <v>11785</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>12049</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>13033</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="W56">
+        <v>1504</v>
+      </c>
+      <c r="X56" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>9864.1</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>9.5163268823308764E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f>A3</f>
+        <f t="shared" ref="A57:A88" si="1">A3</f>
         <v>1964</v>
       </c>
       <c r="B57">
@@ -7951,15 +8798,30 @@
         <v>2018</v>
       </c>
       <c r="G57">
+        <v>10484</v>
+      </c>
+      <c r="H57">
         <v>10202</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>10965</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="W57">
+        <v>1505</v>
+      </c>
+      <c r="X57" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>9128</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>0.10066827344434706</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f>A4</f>
+        <f t="shared" si="1"/>
         <v>1965</v>
       </c>
       <c r="B58">
@@ -7973,669 +8835,690 @@
         <v>2019</v>
       </c>
       <c r="G58">
+        <v>9864.1</v>
+      </c>
+      <c r="H58">
         <v>9110.2000000000007</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="W58">
+        <v>1506</v>
+      </c>
+      <c r="X58" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>8494.4</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>0.11265421925032963</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f>A5</f>
+        <f t="shared" si="1"/>
         <v>1966</v>
       </c>
       <c r="B59">
         <v>2563</v>
       </c>
       <c r="C59" t="e">
-        <f t="shared" ref="C59:C109" si="1">C58</f>
+        <f t="shared" ref="C59:C109" si="2">C58</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>2020</v>
+      </c>
+      <c r="G59">
+        <v>9128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f>A6</f>
+        <f t="shared" si="1"/>
         <v>1967</v>
       </c>
       <c r="B60">
         <v>3888</v>
       </c>
       <c r="C60" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A61">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <f>A7</f>
         <v>1968</v>
       </c>
       <c r="B61">
         <v>4495</v>
       </c>
       <c r="C61" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A62">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f>A8</f>
         <v>1969</v>
       </c>
       <c r="B62">
         <v>5690</v>
       </c>
       <c r="C62" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A63">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f>A9</f>
         <v>1970</v>
       </c>
       <c r="B63">
         <v>6424</v>
       </c>
       <c r="C63" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A64">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <f>A10</f>
         <v>1971</v>
       </c>
       <c r="B64">
         <v>6858</v>
       </c>
       <c r="C64" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f>A11</f>
+        <f t="shared" si="1"/>
         <v>1972</v>
       </c>
       <c r="B65">
         <v>6431</v>
       </c>
       <c r="C65" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f>A12</f>
+        <f t="shared" si="1"/>
         <v>1973</v>
       </c>
       <c r="B66">
         <v>5161</v>
       </c>
       <c r="C66" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f>A13</f>
+        <f t="shared" si="1"/>
         <v>1974</v>
       </c>
       <c r="B67">
         <v>3846</v>
       </c>
       <c r="C67" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f>A14</f>
+        <f t="shared" si="1"/>
         <v>1975</v>
       </c>
       <c r="B68">
         <v>3868</v>
       </c>
       <c r="C68" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f>A15</f>
+        <f t="shared" si="1"/>
         <v>1976</v>
       </c>
       <c r="B69">
         <v>3872</v>
       </c>
       <c r="C69" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f>A16</f>
+        <f t="shared" si="1"/>
         <v>1977</v>
       </c>
       <c r="B70">
         <v>3939</v>
       </c>
       <c r="C70" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f>A17</f>
+        <f t="shared" si="1"/>
         <v>1978</v>
       </c>
       <c r="B71">
         <v>3888</v>
       </c>
       <c r="C71" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f>A18</f>
+        <f t="shared" si="1"/>
         <v>1979</v>
       </c>
       <c r="B72">
         <v>3859</v>
       </c>
       <c r="C72" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f>A19</f>
+        <f t="shared" si="1"/>
         <v>1980</v>
       </c>
       <c r="B73">
         <v>4887</v>
       </c>
       <c r="C73" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f>A20</f>
+        <f t="shared" si="1"/>
         <v>1981</v>
       </c>
       <c r="B74">
         <v>9054</v>
       </c>
       <c r="C74" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f>A21</f>
+        <f t="shared" si="1"/>
         <v>1982</v>
       </c>
       <c r="B75">
         <v>10289</v>
       </c>
       <c r="C75" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f>A22</f>
+        <f t="shared" si="1"/>
         <v>1983</v>
       </c>
       <c r="B76">
         <v>11383</v>
       </c>
       <c r="C76" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f>A23</f>
+        <f t="shared" si="1"/>
         <v>1984</v>
       </c>
       <c r="B77">
         <v>11040</v>
       </c>
       <c r="C77" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f>A24</f>
+        <f t="shared" si="1"/>
         <v>1985</v>
       </c>
       <c r="B78">
         <v>12951</v>
       </c>
       <c r="C78" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f>A25</f>
+        <f t="shared" si="1"/>
         <v>1986</v>
       </c>
       <c r="B79">
         <v>12019</v>
       </c>
       <c r="C79" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f>A26</f>
+        <f t="shared" si="1"/>
         <v>1987</v>
       </c>
       <c r="B80">
         <v>12334</v>
       </c>
       <c r="C80" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f>A27</f>
+        <f t="shared" si="1"/>
         <v>1988</v>
       </c>
       <c r="B81">
         <v>11536</v>
       </c>
       <c r="C81" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f>A28</f>
+        <f t="shared" si="1"/>
         <v>1989</v>
       </c>
       <c r="B82">
         <v>9700</v>
       </c>
       <c r="C82" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f>A29</f>
+        <f t="shared" si="1"/>
         <v>1990</v>
       </c>
       <c r="B83">
         <v>7701</v>
       </c>
       <c r="C83" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f>A30</f>
+        <f t="shared" si="1"/>
         <v>1991</v>
       </c>
       <c r="B84">
         <v>6063</v>
       </c>
       <c r="C84" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f>A31</f>
+        <f t="shared" si="1"/>
         <v>1992</v>
       </c>
       <c r="B85">
         <v>9472</v>
       </c>
       <c r="C85" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f>A32</f>
+        <f t="shared" si="1"/>
         <v>1993</v>
       </c>
       <c r="B86">
         <v>11712</v>
       </c>
       <c r="C86" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f>A33</f>
+        <f t="shared" si="1"/>
         <v>1994</v>
       </c>
       <c r="B87">
         <v>11418</v>
       </c>
       <c r="C87" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f>A34</f>
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="B88">
         <v>13177</v>
       </c>
       <c r="C88" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f>A35</f>
+        <f t="shared" ref="A89:A120" si="3">A35</f>
         <v>1996</v>
       </c>
       <c r="B89">
         <v>11358</v>
       </c>
       <c r="C89" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f>A36</f>
+        <f t="shared" si="3"/>
         <v>1997</v>
       </c>
       <c r="B90">
         <v>9940</v>
       </c>
       <c r="C90" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f>A37</f>
+        <f t="shared" si="3"/>
         <v>1998</v>
       </c>
       <c r="B91">
         <v>9990</v>
       </c>
       <c r="C91" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f>A38</f>
+        <f t="shared" si="3"/>
         <v>1999</v>
       </c>
       <c r="B92">
         <v>10853</v>
       </c>
       <c r="C92" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f>A39</f>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="B93">
         <v>10068</v>
       </c>
       <c r="C93" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f>A40</f>
+        <f t="shared" si="3"/>
         <v>2001</v>
       </c>
       <c r="B94">
         <v>9854</v>
       </c>
       <c r="C94" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f>A41</f>
+        <f t="shared" si="3"/>
         <v>2002</v>
       </c>
       <c r="B95">
         <v>10276</v>
       </c>
       <c r="C95" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f>A42</f>
+        <f t="shared" si="3"/>
         <v>2003</v>
       </c>
       <c r="B96">
         <v>12365</v>
       </c>
       <c r="C96" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f>A43</f>
+        <f t="shared" si="3"/>
         <v>2004</v>
       </c>
       <c r="B97">
         <v>11591</v>
       </c>
       <c r="C97" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f>A44</f>
+        <f t="shared" si="3"/>
         <v>2005</v>
       </c>
       <c r="B98">
         <v>9705</v>
       </c>
       <c r="C98" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f>A45</f>
+        <f t="shared" si="3"/>
         <v>2006</v>
       </c>
       <c r="B99">
         <v>7446</v>
       </c>
       <c r="C99" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f>A46</f>
+        <f t="shared" si="3"/>
         <v>2007</v>
       </c>
       <c r="B100">
         <v>6045</v>
       </c>
       <c r="C100" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f>A47</f>
+        <f t="shared" si="3"/>
         <v>2008</v>
       </c>
       <c r="B101">
         <v>4849</v>
       </c>
       <c r="C101" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f>A48</f>
+        <f t="shared" si="3"/>
         <v>2009</v>
       </c>
       <c r="B102">
         <v>6331</v>
       </c>
       <c r="C102" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f>A49</f>
+        <f t="shared" si="3"/>
         <v>2010</v>
       </c>
       <c r="B103">
         <v>6680</v>
       </c>
       <c r="C103" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
-        <f>A50</f>
+        <f t="shared" si="3"/>
         <v>2011</v>
       </c>
       <c r="B104">
         <v>10053</v>
       </c>
       <c r="C104" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
-        <f>A51</f>
+        <f t="shared" si="3"/>
         <v>2012</v>
       </c>
       <c r="B105">
         <v>10164</v>
       </c>
       <c r="C105" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
-        <f>A52</f>
+        <f t="shared" si="3"/>
         <v>2013</v>
       </c>
       <c r="B106">
         <v>10337</v>
       </c>
       <c r="C106" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
-        <f>A53</f>
+        <f t="shared" si="3"/>
         <v>2014</v>
       </c>
       <c r="B107">
         <v>9805</v>
       </c>
       <c r="C107" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <f>A54</f>
+        <f t="shared" si="3"/>
         <v>2015</v>
       </c>
       <c r="B108">
         <v>10970</v>
       </c>
       <c r="C108" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f>A55</f>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
       <c r="B109">
         <v>11292</v>
       </c>
       <c r="C109" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -8653,7 +9536,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <f t="shared" ref="A111:A161" si="2">A58</f>
+        <f t="shared" ref="A111:A161" si="4">A58</f>
         <v>1965</v>
       </c>
       <c r="B111">
@@ -8665,7 +9548,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1966</v>
       </c>
       <c r="B112">
@@ -8677,7 +9560,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1967</v>
       </c>
       <c r="B113">
@@ -8689,7 +9572,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1968</v>
       </c>
       <c r="B114">
@@ -8701,7 +9584,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1969</v>
       </c>
       <c r="B115">
@@ -8713,7 +9596,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1970</v>
       </c>
       <c r="B116">
@@ -8725,7 +9608,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1971</v>
       </c>
       <c r="B117">
@@ -8737,7 +9620,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1972</v>
       </c>
       <c r="B118">
@@ -8749,7 +9632,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1973</v>
       </c>
       <c r="B119">
@@ -8761,7 +9644,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1974</v>
       </c>
       <c r="B120">
@@ -8773,7 +9656,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1975</v>
       </c>
       <c r="B121">
@@ -8785,7 +9668,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1976</v>
       </c>
       <c r="B122">
@@ -8797,7 +9680,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1977</v>
       </c>
       <c r="B123">
@@ -8809,7 +9692,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1978</v>
       </c>
       <c r="B124">
@@ -8821,7 +9704,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1979</v>
       </c>
       <c r="B125">
@@ -8833,7 +9716,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1980</v>
       </c>
       <c r="B126">
@@ -8845,7 +9728,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1981</v>
       </c>
       <c r="B127">
@@ -8857,7 +9740,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1982</v>
       </c>
       <c r="B128">
@@ -8869,7 +9752,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1983</v>
       </c>
       <c r="B129">
@@ -8881,7 +9764,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1984</v>
       </c>
       <c r="B130">
@@ -8893,7 +9776,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1985</v>
       </c>
       <c r="B131">
@@ -8905,7 +9788,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1986</v>
       </c>
       <c r="B132">
@@ -8917,7 +9800,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1987</v>
       </c>
       <c r="B133">
@@ -8929,7 +9812,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1988</v>
       </c>
       <c r="B134">
@@ -8941,7 +9824,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1989</v>
       </c>
       <c r="B135">
@@ -8953,7 +9836,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1990</v>
       </c>
       <c r="B136">
@@ -8965,7 +9848,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1991</v>
       </c>
       <c r="B137">
@@ -8977,7 +9860,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1992</v>
       </c>
       <c r="B138">
@@ -8989,7 +9872,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1993</v>
       </c>
       <c r="B139">
@@ -9001,7 +9884,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1994</v>
       </c>
       <c r="B140">
@@ -9013,7 +9896,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1995</v>
       </c>
       <c r="B141">
@@ -9025,7 +9908,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1996</v>
       </c>
       <c r="B142">
@@ -9037,7 +9920,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1997</v>
       </c>
       <c r="B143">
@@ -9049,7 +9932,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1998</v>
       </c>
       <c r="B144">
@@ -9061,7 +9944,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1999</v>
       </c>
       <c r="B145">
@@ -9073,7 +9956,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="B146">
@@ -9085,7 +9968,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2001</v>
       </c>
       <c r="B147">
@@ -9097,7 +9980,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2002</v>
       </c>
       <c r="B148">
@@ -9109,7 +9992,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2003</v>
       </c>
       <c r="B149">
@@ -9121,7 +10004,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2004</v>
       </c>
       <c r="B150">
@@ -9133,7 +10016,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2005</v>
       </c>
       <c r="B151">
@@ -9145,7 +10028,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2006</v>
       </c>
       <c r="B152">
@@ -9157,7 +10040,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2007</v>
       </c>
       <c r="B153">
@@ -9169,7 +10052,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2008</v>
       </c>
       <c r="B154">
@@ -9181,7 +10064,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2009</v>
       </c>
       <c r="B155">
@@ -9193,7 +10076,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2010</v>
       </c>
       <c r="B156">
@@ -9205,7 +10088,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2011</v>
       </c>
       <c r="B157">
@@ -9217,7 +10100,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2012</v>
       </c>
       <c r="B158">
@@ -9229,7 +10112,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2013</v>
       </c>
       <c r="B159">
@@ -9241,7 +10124,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2014</v>
       </c>
       <c r="B160">
@@ -9253,7 +10136,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2015</v>
       </c>
       <c r="B161">
@@ -9277,664 +10160,664 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
-        <f t="shared" ref="A163:A213" si="3">A58</f>
+        <f t="shared" ref="A163:A213" si="5">A58</f>
         <v>1965</v>
       </c>
       <c r="B163">
         <v>2051.4</v>
       </c>
       <c r="C163">
-        <f t="shared" ref="C163:C174" si="4">C110-1</f>
+        <f t="shared" ref="C163:C174" si="6">C110-1</f>
         <v>2013</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1966</v>
       </c>
       <c r="B164">
         <v>2149.6</v>
       </c>
       <c r="C164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2013</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1967</v>
       </c>
       <c r="B165">
         <v>3344</v>
       </c>
       <c r="C165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2013</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1968</v>
       </c>
       <c r="B166">
         <v>3800</v>
       </c>
       <c r="C166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2013</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1969</v>
       </c>
       <c r="B167">
         <v>5145.2</v>
       </c>
       <c r="C167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2013</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1970</v>
       </c>
       <c r="B168">
         <v>6178.6</v>
       </c>
       <c r="C168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2013</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1971</v>
       </c>
       <c r="B169">
         <v>6884.2</v>
       </c>
       <c r="C169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2013</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1972</v>
       </c>
       <c r="B170">
         <v>6299</v>
       </c>
       <c r="C170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2013</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1973</v>
       </c>
       <c r="B171">
         <v>4692</v>
       </c>
       <c r="C171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2013</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1974</v>
       </c>
       <c r="B172">
         <v>3291.1</v>
       </c>
       <c r="C172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2013</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1975</v>
       </c>
       <c r="B173">
         <v>3515.5</v>
       </c>
       <c r="C173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2013</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1976</v>
       </c>
       <c r="B174">
         <v>3577.9</v>
       </c>
       <c r="C174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2013</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1977</v>
       </c>
       <c r="B175">
         <v>3612.5</v>
       </c>
       <c r="C175">
-        <f t="shared" ref="C175:C213" si="5">C122-1</f>
+        <f t="shared" ref="C175:C213" si="7">C122-1</f>
         <v>2013</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1978</v>
       </c>
       <c r="B176">
         <v>3524</v>
       </c>
       <c r="C176">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <f t="shared" si="5"/>
+        <v>1979</v>
+      </c>
+      <c r="B177">
+        <v>3386.9</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <f t="shared" si="5"/>
+        <v>1980</v>
+      </c>
+      <c r="B178">
+        <v>4307.3999999999996</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <f t="shared" si="5"/>
+        <v>1981</v>
+      </c>
+      <c r="B179">
+        <v>8320.7999999999993</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f t="shared" si="5"/>
+        <v>1982</v>
+      </c>
+      <c r="B180">
+        <v>9496.9</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <f t="shared" si="5"/>
+        <v>1983</v>
+      </c>
+      <c r="B181">
+        <v>10560</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <f t="shared" si="5"/>
+        <v>1984</v>
+      </c>
+      <c r="B182">
+        <v>10239</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f t="shared" si="5"/>
+        <v>1985</v>
+      </c>
+      <c r="B183">
+        <v>12409</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f t="shared" si="5"/>
+        <v>1986</v>
+      </c>
+      <c r="B184">
+        <v>11621</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" si="5"/>
+        <v>1987</v>
+      </c>
+      <c r="B185">
+        <v>12243</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" si="5"/>
+        <v>1988</v>
+      </c>
+      <c r="B186">
+        <v>11583</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f t="shared" si="5"/>
+        <v>1989</v>
+      </c>
+      <c r="B187">
+        <v>9860.9</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f t="shared" si="5"/>
+        <v>1990</v>
+      </c>
+      <c r="B188">
+        <v>7891.2</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f t="shared" si="5"/>
+        <v>1991</v>
+      </c>
+      <c r="B189">
+        <v>6170.8</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <f t="shared" si="5"/>
+        <v>1992</v>
+      </c>
+      <c r="B190">
+        <v>9561.7000000000007</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <f t="shared" si="5"/>
+        <v>1993</v>
+      </c>
+      <c r="B191">
+        <v>11712</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <f t="shared" si="5"/>
+        <v>1994</v>
+      </c>
+      <c r="B192">
+        <v>11306</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <f t="shared" si="5"/>
+        <v>1995</v>
+      </c>
+      <c r="B193">
+        <v>13074</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <f t="shared" si="5"/>
+        <v>1996</v>
+      </c>
+      <c r="B194">
+        <v>11198</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <f t="shared" si="5"/>
+        <v>1997</v>
+      </c>
+      <c r="B195">
+        <v>9801.2000000000007</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <f t="shared" si="5"/>
+        <v>1998</v>
+      </c>
+      <c r="B196">
+        <v>9902.7000000000007</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <f t="shared" si="5"/>
+        <v>1999</v>
+      </c>
+      <c r="B197">
+        <v>10791</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="B198">
+        <v>10020</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <f t="shared" si="5"/>
+        <v>2001</v>
+      </c>
+      <c r="B199">
+        <v>9802.5</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <f t="shared" si="5"/>
+        <v>2002</v>
+      </c>
+      <c r="B200">
+        <v>10182</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <f t="shared" si="5"/>
+        <v>2003</v>
+      </c>
+      <c r="B201">
+        <v>12211</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <f t="shared" si="5"/>
+        <v>2004</v>
+      </c>
+      <c r="B202">
+        <v>11416</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <f t="shared" si="5"/>
+        <v>2005</v>
+      </c>
+      <c r="B203">
+        <v>9521.5</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <f t="shared" si="5"/>
+        <v>2006</v>
+      </c>
+      <c r="B204">
+        <v>7261.9</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <f t="shared" si="5"/>
+        <v>2007</v>
+      </c>
+      <c r="B205">
+        <v>5840</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="B206">
+        <v>4607.2</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <f t="shared" si="5"/>
+        <v>2009</v>
+      </c>
+      <c r="B207">
+        <v>5879.7</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <f t="shared" si="5"/>
+        <v>2010</v>
+      </c>
+      <c r="B208">
+        <v>5622.3</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <f t="shared" si="5"/>
+        <v>2011</v>
+      </c>
+      <c r="B209">
+        <v>7927.5</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+      <c r="B210">
+        <v>7853</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="7"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
         <f t="shared" si="5"/>
         <v>2013</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <f t="shared" si="3"/>
-        <v>1979</v>
-      </c>
-      <c r="B177">
-        <v>3386.9</v>
-      </c>
-      <c r="C177">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <f t="shared" si="3"/>
-        <v>1980</v>
-      </c>
-      <c r="B178">
-        <v>4307.3999999999996</v>
-      </c>
-      <c r="C178">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <f t="shared" si="3"/>
-        <v>1981</v>
-      </c>
-      <c r="B179">
-        <v>8320.7999999999993</v>
-      </c>
-      <c r="C179">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <f t="shared" si="3"/>
-        <v>1982</v>
-      </c>
-      <c r="B180">
-        <v>9496.9</v>
-      </c>
-      <c r="C180">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <f t="shared" si="3"/>
-        <v>1983</v>
-      </c>
-      <c r="B181">
-        <v>10560</v>
-      </c>
-      <c r="C181">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <f t="shared" si="3"/>
-        <v>1984</v>
-      </c>
-      <c r="B182">
-        <v>10239</v>
-      </c>
-      <c r="C182">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <f t="shared" si="3"/>
-        <v>1985</v>
-      </c>
-      <c r="B183">
-        <v>12409</v>
-      </c>
-      <c r="C183">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <f t="shared" si="3"/>
-        <v>1986</v>
-      </c>
-      <c r="B184">
-        <v>11621</v>
-      </c>
-      <c r="C184">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <f t="shared" si="3"/>
-        <v>1987</v>
-      </c>
-      <c r="B185">
-        <v>12243</v>
-      </c>
-      <c r="C185">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <f t="shared" si="3"/>
-        <v>1988</v>
-      </c>
-      <c r="B186">
-        <v>11583</v>
-      </c>
-      <c r="C186">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <f t="shared" si="3"/>
-        <v>1989</v>
-      </c>
-      <c r="B187">
-        <v>9860.9</v>
-      </c>
-      <c r="C187">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <f t="shared" si="3"/>
-        <v>1990</v>
-      </c>
-      <c r="B188">
-        <v>7891.2</v>
-      </c>
-      <c r="C188">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <f t="shared" si="3"/>
-        <v>1991</v>
-      </c>
-      <c r="B189">
-        <v>6170.8</v>
-      </c>
-      <c r="C189">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <f t="shared" si="3"/>
-        <v>1992</v>
-      </c>
-      <c r="B190">
-        <v>9561.7000000000007</v>
-      </c>
-      <c r="C190">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <f t="shared" si="3"/>
-        <v>1993</v>
-      </c>
-      <c r="B191">
-        <v>11712</v>
-      </c>
-      <c r="C191">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <f t="shared" si="3"/>
-        <v>1994</v>
-      </c>
-      <c r="B192">
-        <v>11306</v>
-      </c>
-      <c r="C192">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <f t="shared" si="3"/>
-        <v>1995</v>
-      </c>
-      <c r="B193">
-        <v>13074</v>
-      </c>
-      <c r="C193">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <f t="shared" si="3"/>
-        <v>1996</v>
-      </c>
-      <c r="B194">
-        <v>11198</v>
-      </c>
-      <c r="C194">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <f t="shared" si="3"/>
-        <v>1997</v>
-      </c>
-      <c r="B195">
-        <v>9801.2000000000007</v>
-      </c>
-      <c r="C195">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <f t="shared" si="3"/>
-        <v>1998</v>
-      </c>
-      <c r="B196">
-        <v>9902.7000000000007</v>
-      </c>
-      <c r="C196">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <f t="shared" si="3"/>
-        <v>1999</v>
-      </c>
-      <c r="B197">
-        <v>10791</v>
-      </c>
-      <c r="C197">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="B198">
-        <v>10020</v>
-      </c>
-      <c r="C198">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <f t="shared" si="3"/>
-        <v>2001</v>
-      </c>
-      <c r="B199">
-        <v>9802.5</v>
-      </c>
-      <c r="C199">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <f t="shared" si="3"/>
-        <v>2002</v>
-      </c>
-      <c r="B200">
-        <v>10182</v>
-      </c>
-      <c r="C200">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <f t="shared" si="3"/>
-        <v>2003</v>
-      </c>
-      <c r="B201">
-        <v>12211</v>
-      </c>
-      <c r="C201">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <f t="shared" si="3"/>
-        <v>2004</v>
-      </c>
-      <c r="B202">
-        <v>11416</v>
-      </c>
-      <c r="C202">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <f t="shared" si="3"/>
-        <v>2005</v>
-      </c>
-      <c r="B203">
-        <v>9521.5</v>
-      </c>
-      <c r="C203">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <f t="shared" si="3"/>
-        <v>2006</v>
-      </c>
-      <c r="B204">
-        <v>7261.9</v>
-      </c>
-      <c r="C204">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <f t="shared" si="3"/>
-        <v>2007</v>
-      </c>
-      <c r="B205">
-        <v>5840</v>
-      </c>
-      <c r="C205">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <f t="shared" si="3"/>
-        <v>2008</v>
-      </c>
-      <c r="B206">
-        <v>4607.2</v>
-      </c>
-      <c r="C206">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <f t="shared" si="3"/>
-        <v>2009</v>
-      </c>
-      <c r="B207">
-        <v>5879.7</v>
-      </c>
-      <c r="C207">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <f t="shared" si="3"/>
-        <v>2010</v>
-      </c>
-      <c r="B208">
-        <v>5622.3</v>
-      </c>
-      <c r="C208">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <f t="shared" si="3"/>
-        <v>2011</v>
-      </c>
-      <c r="B209">
-        <v>7927.5</v>
-      </c>
-      <c r="C209">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <f t="shared" si="3"/>
-        <v>2012</v>
-      </c>
-      <c r="B210">
-        <v>7853</v>
-      </c>
-      <c r="C210">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <f t="shared" si="3"/>
-        <v>2013</v>
-      </c>
       <c r="B211">
         <v>8261</v>
       </c>
       <c r="C211">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2013</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2014</v>
       </c>
       <c r="B212">
         <v>8045.3</v>
       </c>
       <c r="C212">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2013</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2015</v>
       </c>
       <c r="B213">
         <v>7778.4</v>
       </c>
       <c r="C213">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2013</v>
       </c>
     </row>
@@ -9952,7 +10835,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
-        <f t="shared" ref="A215:A264" si="6">A4</f>
+        <f t="shared" ref="A215:A264" si="8">A4</f>
         <v>1965</v>
       </c>
       <c r="B215">
@@ -9964,7 +10847,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1966</v>
       </c>
       <c r="B216">
@@ -9976,7 +10859,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1967</v>
       </c>
       <c r="B217">
@@ -9988,7 +10871,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1968</v>
       </c>
       <c r="B218">
@@ -10000,7 +10883,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1969</v>
       </c>
       <c r="B219">
@@ -10012,7 +10895,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1970</v>
       </c>
       <c r="B220">
@@ -10024,7 +10907,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1971</v>
       </c>
       <c r="B221">
@@ -10036,7 +10919,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1972</v>
       </c>
       <c r="B222">
@@ -10048,7 +10931,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1973</v>
       </c>
       <c r="B223">
@@ -10060,7 +10943,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1974</v>
       </c>
       <c r="B224">
@@ -10072,7 +10955,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1975</v>
       </c>
       <c r="B225">
@@ -10084,7 +10967,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1976</v>
       </c>
       <c r="B226">
@@ -10096,7 +10979,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1977</v>
       </c>
       <c r="B227">
@@ -10108,7 +10991,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1978</v>
       </c>
       <c r="B228">
@@ -10120,7 +11003,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1979</v>
       </c>
       <c r="B229">
@@ -10132,7 +11015,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1980</v>
       </c>
       <c r="B230">
@@ -10144,7 +11027,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1981</v>
       </c>
       <c r="B231">
@@ -10156,7 +11039,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1982</v>
       </c>
       <c r="B232">
@@ -10168,7 +11051,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1983</v>
       </c>
       <c r="B233">
@@ -10180,7 +11063,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1984</v>
       </c>
       <c r="B234">
@@ -10192,7 +11075,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1985</v>
       </c>
       <c r="B235">
@@ -10204,7 +11087,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1986</v>
       </c>
       <c r="B236">
@@ -10216,7 +11099,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1987</v>
       </c>
       <c r="B237">
@@ -10228,7 +11111,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1988</v>
       </c>
       <c r="B238">
@@ -10240,7 +11123,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1989</v>
       </c>
       <c r="B239">
@@ -10252,7 +11135,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1990</v>
       </c>
       <c r="B240">
@@ -10264,7 +11147,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1991</v>
       </c>
       <c r="B241">
@@ -10276,7 +11159,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1992</v>
       </c>
       <c r="B242">
@@ -10288,7 +11171,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1993</v>
       </c>
       <c r="B243">
@@ -10300,7 +11183,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1994</v>
       </c>
       <c r="B244">
@@ -10312,7 +11195,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1995</v>
       </c>
       <c r="B245">
@@ -10324,7 +11207,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1996</v>
       </c>
       <c r="B246">
@@ -10336,7 +11219,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1997</v>
       </c>
       <c r="B247">
@@ -10348,7 +11231,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1998</v>
       </c>
       <c r="B248">
@@ -10360,7 +11243,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1999</v>
       </c>
       <c r="B249">
@@ -10372,7 +11255,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
       <c r="B250">
@@ -10384,7 +11267,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2001</v>
       </c>
       <c r="B251">
@@ -10396,7 +11279,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2002</v>
       </c>
       <c r="B252">
@@ -10408,7 +11291,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2003</v>
       </c>
       <c r="B253">
@@ -10420,7 +11303,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2004</v>
       </c>
       <c r="B254">
@@ -10432,7 +11315,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2005</v>
       </c>
       <c r="B255">
@@ -10444,7 +11327,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2006</v>
       </c>
       <c r="B256">
@@ -10456,7 +11339,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2007</v>
       </c>
       <c r="B257">
@@ -10468,7 +11351,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2008</v>
       </c>
       <c r="B258">
@@ -10480,7 +11363,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2009</v>
       </c>
       <c r="B259">
@@ -10492,7 +11375,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2010</v>
       </c>
       <c r="B260">
@@ -10504,7 +11387,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2011</v>
       </c>
       <c r="B261">
@@ -10516,7 +11399,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2012</v>
       </c>
       <c r="B262">
@@ -10528,7 +11411,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2013</v>
       </c>
       <c r="B263">
@@ -10540,7 +11423,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2014</v>
       </c>
       <c r="B264">
